--- a/template.xlsx
+++ b/template.xlsx
@@ -143,13 +143,62 @@
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="40"/>
+      <c:rotY val="0"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
     <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10001793525809276"/>
+          <c:y val="0.33119932925051038"/>
+          <c:w val="0.6780290901137358"/>
+          <c:h val="0.64767096821230674"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pie3DChart>
         <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:explosion val="10"/>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
@@ -167,6 +216,7 @@
                   </a:prstClr>
                 </a:outerShdw>
               </a:effectLst>
+              <a:sp3d/>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -191,6 +241,7 @@
                   </a:prstClr>
                 </a:outerShdw>
               </a:effectLst>
+              <a:sp3d/>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -215,6 +266,7 @@
                   </a:prstClr>
                 </a:outerShdw>
               </a:effectLst>
+              <a:sp3d/>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -268,7 +320,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="ctr"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -322,10 +374,10 @@
                   <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>212</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>706</c:v>
+                  <c:v>712</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -346,8 +398,7 @@
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
+      </c:pie3DChart>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -376,7 +427,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1">
                   <a:lumMod val="75000"/>
@@ -487,7 +538,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Arterial Switch</a:t>
+              <a:t>Redo Operations</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -522,26 +573,55 @@
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="40"/>
+      <c:rotY val="0"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="31750" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="17"/>
+          <c:explosion val="10"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -549,16 +629,72 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
             </c:spPr>
-          </c:marker>
-          <c:dLbls>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-1AE2-444A-ACC6-741FE155D99D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-1AE2-444A-ACC6-741FE155D99D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -567,7 +703,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="lt1"/>
                     </a:solidFill>
@@ -579,218 +715,79 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="ctr"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
+            <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
+            <c:separator>
+            </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="50000"/>
-                          <a:lumOff val="50000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
-              <c:f>(Procedures!$A$766,Procedures!$A$851,Procedures!$A$936,Procedures!$A$1021,Procedures!$A$1106,Procedures!$A$1191,Procedures!$A$1276,Procedures!$A$1361,Procedures!$A$1446)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+            <c:strRef>
+              <c:f>Redo!$A$50:$A$51</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2009</c:v>
+                  <c:v>First_Operation</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2017</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>Redo_Operation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Procedures!$F$793,Procedures!$F$878,Procedures!$F$963,Procedures!$F$1048,Procedures!$F$1133,Procedures!$F$1218,Procedures!$F$1303,Procedures!$F$1388,Procedures!$F$1473)</c:f>
+              <c:f>Redo!$N$50:$N$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>690</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>95</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4581-48E1-A5A0-E11814684928}"/>
+              <c16:uniqueId val="{00000004-1AE2-444A-ACC6-741FE155D99D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
+          <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="754715760"/>
-        <c:axId val="754716744"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="754715760"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="754716744"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="754716744"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="95000"/>
-                      <a:lumOff val="5000"/>
-                      <a:alpha val="42000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="75000"/>
-                      <a:alpha val="36000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="754715760"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
+      </c:pie3DChart>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -799,6 +796,42 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -894,355 +927,6 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Redo Operations</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-1AE2-444A-ACC6-741FE155D99D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-1AE2-444A-ACC6-741FE155D99D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:pattFill prst="pct75">
-                <a:fgClr>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:separator>
-            </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Redo!$A$50:$A$51</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>First_Operation</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Redo_Operation</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Redo!$N$50:$N$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>675</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>142</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-1AE2-444A-ACC6-741FE155D99D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="ctr"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="39000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-        <a:gs pos="39000">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="lt1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="25000"/>
-          <a:lumOff val="75000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
               <a:t>Residence</a:t>
             </a:r>
           </a:p>
@@ -1278,13 +962,52 @@
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="40"/>
+      <c:rotY val="0"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:pieChart>
+      <c:pie3DChart>
         <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:explosion val="10"/>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
@@ -1302,6 +1025,7 @@
                   </a:prstClr>
                 </a:outerShdw>
               </a:effectLst>
+              <a:sp3d/>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1326,6 +1050,7 @@
                   </a:prstClr>
                 </a:outerShdw>
               </a:effectLst>
+              <a:sp3d/>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1350,6 +1075,7 @@
                   </a:prstClr>
                 </a:outerShdw>
               </a:effectLst>
+              <a:sp3d/>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1374,6 +1100,7 @@
                   </a:prstClr>
                 </a:outerShdw>
               </a:effectLst>
+              <a:sp3d/>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1398,6 +1125,7 @@
                   </a:prstClr>
                 </a:outerShdw>
               </a:effectLst>
+              <a:sp3d/>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1451,7 +1179,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="ctr"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1508,16 +1236,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>307</c:v>
+                  <c:v>310</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>256</c:v>
+                  <c:v>259</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>167</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>237</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>22</c:v>
@@ -1541,8 +1269,7 @@
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
+      </c:pie3DChart>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1571,7 +1298,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1">
                   <a:lumMod val="75000"/>
@@ -1647,7 +1374,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1842,16 +1569,16 @@
                   <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>144</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200</c:v>
+                  <c:v>204</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>153</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2035,7 +1762,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2227,16 +1954,16 @@
                   <c:v>4.0199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.97</c:v>
+                  <c:v>3.89</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.68</c:v>
+                  <c:v>3.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.97</c:v>
+                  <c:v>3.99</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.75</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2.4300000000000002</c:v>
@@ -2423,7 +2150,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2644,7 +2371,7 @@
                   <c:v>268</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>307</c:v>
+                  <c:v>310</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2830,7 +2557,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2908,13 +2635,52 @@
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="40"/>
+      <c:rotY val="0"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:pieChart>
+      <c:pie3DChart>
         <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:explosion val="10"/>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
@@ -2932,6 +2698,7 @@
                   </a:prstClr>
                 </a:outerShdw>
               </a:effectLst>
+              <a:sp3d/>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2956,6 +2723,7 @@
                   </a:prstClr>
                 </a:outerShdw>
               </a:effectLst>
+              <a:sp3d/>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -3057,10 +2825,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>413</c:v>
+                  <c:v>416</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>576</c:v>
+                  <c:v>582</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3081,8 +2849,7 @@
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
+      </c:pie3DChart>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3111,7 +2878,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1">
                   <a:lumMod val="75000"/>
@@ -3127,6 +2894,410 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Arterial Switch</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Procedures!$A$757,Procedures!$A$841,Procedures!$A$925,Procedures!$A$1009,Procedures!$A$1093,Procedures!$A$1177,Procedures!$A$1261,Procedures!$A$1345,Procedures!$A$1429)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Procedures!$F$784,Procedures!$F$868,Procedures!$F$952,Procedures!$F$1036,Procedures!$F$1120,Procedures!$F$1204,Procedures!$F$1288,Procedures!$F$1372,Procedures!$F$1456)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5384-48E5-B211-410D92C230A3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="675991320"/>
+        <c:axId val="675992960"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="675991320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="675992960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="675992960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="675991320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -3432,7 +3603,7 @@
                   <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>21</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3612,7 +3783,7 @@
                   <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>32</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3757,7 +3928,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1">
                   <a:lumMod val="75000"/>
@@ -4054,7 +4225,7 @@
                   <c:v>806</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>989</c:v>
+                  <c:v>998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4717,13 +4888,52 @@
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="40"/>
+      <c:rotY val="0"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:pieChart>
+      <c:pie3DChart>
         <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:explosion val="10"/>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
@@ -4741,6 +4951,7 @@
                   </a:prstClr>
                 </a:outerShdw>
               </a:effectLst>
+              <a:sp3d/>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4765,6 +4976,7 @@
                   </a:prstClr>
                 </a:outerShdw>
               </a:effectLst>
+              <a:sp3d/>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4866,10 +5078,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>578</c:v>
+                  <c:v>584</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>411</c:v>
+                  <c:v>414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4890,8 +5102,7 @@
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
+      </c:pie3DChart>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4920,7 +5131,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1">
                   <a:lumMod val="75000"/>
@@ -5188,10 +5399,10 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>19</c:v>
@@ -5460,13 +5671,52 @@
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="40"/>
+      <c:rotY val="0"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:pieChart>
+      <c:pie3DChart>
         <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:explosion val="10"/>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
@@ -5484,6 +5734,7 @@
                   </a:prstClr>
                 </a:outerShdw>
               </a:effectLst>
+              <a:sp3d/>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -5508,6 +5759,7 @@
                   </a:prstClr>
                 </a:outerShdw>
               </a:effectLst>
+              <a:sp3d/>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -5532,6 +5784,7 @@
                   </a:prstClr>
                 </a:outerShdw>
               </a:effectLst>
+              <a:sp3d/>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -5540,6 +5793,30 @@
             </c:extLst>
           </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.6666666666666666E-2"/>
+                  <c:y val="8.7962962962962965E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+              </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-7898-4875-BFEC-85BC297DD224}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:pattFill prst="pct75">
                 <a:fgClr>
@@ -5585,7 +5862,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="ctr"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -5639,7 +5916,7 @@
                   <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>24</c:v>
@@ -5663,8 +5940,7 @@
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
+      </c:pie3DChart>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5693,7 +5969,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1">
                   <a:lumMod val="75000"/>
@@ -5832,13 +6108,52 @@
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="40"/>
+      <c:rotY val="0"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:pieChart>
+      <c:pie3DChart>
         <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:explosion val="10"/>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
@@ -5856,6 +6171,7 @@
                   </a:prstClr>
                 </a:outerShdw>
               </a:effectLst>
+              <a:sp3d/>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -5880,6 +6196,7 @@
                   </a:prstClr>
                 </a:outerShdw>
               </a:effectLst>
+              <a:sp3d/>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -5904,6 +6221,7 @@
                   </a:prstClr>
                 </a:outerShdw>
               </a:effectLst>
+              <a:sp3d/>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -6034,7 +6352,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>('2017'!$A$39,'2017'!$A$40,'2017'!$A$41)</c:f>
+              <c:f>('2017'!$A$38,'2017'!$A$39,'2017'!$A$40)</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -6051,12 +6369,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('2017'!$N$39,'2017'!$N$40,'2017'!$N$41)</c:f>
+              <c:f>('2017'!$N$38,'2017'!$N$39,'2017'!$N$40)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>79</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -6083,8 +6401,7 @@
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
+      </c:pie3DChart>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -6113,7 +6430,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1">
                   <a:lumMod val="75000"/>
@@ -7795,7 +8112,7 @@
 </file>
 
 <file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="228">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7872,14 +8189,35 @@
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1"/>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -7889,15 +8227,29 @@
       <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-          <a:alpha val="75000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
@@ -7913,21 +8265,60 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="phClr"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
@@ -7942,50 +8333,9 @@
           <a:alpha val="85000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="31750" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -8964,7 +9314,7 @@
 </file>
 
 <file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="205">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -9046,30 +9396,7 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="pct75">
-        <a:fgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:spPr>
-    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -9079,29 +9406,15 @@
       <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:pattFill prst="pct75">
-        <a:fgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:spPr>
-    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
@@ -9117,15 +9430,18 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr"/>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="20000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
@@ -9139,15 +9455,18 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr"/>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="20000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -10135,7 +10454,7 @@
 </file>
 
 <file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="205">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="228">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -10212,7 +10531,9 @@
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1"/>
@@ -10302,9 +10623,7 @@
     <cs:spPr>
       <a:ln w="31750" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="85000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -10321,13 +10640,11 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="phClr"/>
       </a:solidFill>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -10705,7 +11022,7 @@
 </file>
 
 <file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="228">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -10782,14 +11099,35 @@
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1"/>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -10799,15 +11137,29 @@
       <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-          <a:alpha val="75000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
@@ -10823,21 +11175,60 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="phClr"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
@@ -10852,50 +11243,9 @@
           <a:alpha val="85000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="31750" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -11273,7 +11623,7 @@
 </file>
 
 <file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="228">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -11350,35 +11700,14 @@
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="pct75">
-        <a:fgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:spPr>
-    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -11388,29 +11717,15 @@
       <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:pattFill prst="pct75">
-        <a:fgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:spPr>
-    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
@@ -11426,15 +11741,18 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr"/>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="20000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
@@ -11448,15 +11766,18 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr"/>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="20000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -11471,9 +11792,7 @@
     <cs:spPr>
       <a:ln w="31750" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="85000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -11490,13 +11809,11 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="phClr"/>
       </a:solidFill>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -16868,44 +17185,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="Chart 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39434BE4-A803-47BE-BE9C-37BA36F08A51}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>81</xdr:row>
@@ -16936,7 +17215,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -16974,7 +17253,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -17012,7 +17291,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -17050,7 +17329,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -17088,7 +17367,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -17113,6 +17392,44 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{430144E1-D853-4821-B59A-F51288028A50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="23" name="Chart 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B458B11-80C5-40F4-840F-091BF3CC78EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/template.xlsx
+++ b/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Work\Audit\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="11360B5EED8C10B1E0E014C0753BA3E310DFD234" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{175EC6FE-CFE1-4845-9A61-C4E298375697}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="11360B5EED8C10B1E0E014C0753BA3E310DFD234" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{86ECDF8C-6294-4783-BD60-7B2A93CD35BD}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13128" windowHeight="6108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,7 +109,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Age Groups</a:t>
+              <a:t>Pediatric Age Groups (2017)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -598,7 +598,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Redo Operations</a:t>
+              <a:t>Redo Operations (2017)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -781,6 +781,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-1AE2-444A-ACC6-741FE155D99D}"/>
                 </c:ext>
@@ -843,6 +844,13 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
@@ -1004,7 +1012,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Residence</a:t>
+              <a:t>Residence (2017)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1293,6 +1301,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-44B0-4116-AFEB-BBB73A2BBD48}"/>
                 </c:ext>
@@ -1384,6 +1393,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-44B0-4116-AFEB-BBB73A2BBD48}"/>
                 </c:ext>
@@ -1425,6 +1435,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-44B0-4116-AFEB-BBB73A2BBD48}"/>
                 </c:ext>
@@ -1466,11 +1477,19 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-44B0-4116-AFEB-BBB73A2BBD48}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
@@ -1650,7 +1669,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Surgeons</a:t>
+              <a:t>Surgeons (2017)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2092,7 +2111,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Week Days</a:t>
+              <a:t>Week Days (2017)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3777,7 +3796,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Adults - Pediatrics</a:t>
+              <a:t>Adults - Pediatrics (2017)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5489,7 +5508,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Gender</a:t>
+              <a:t>Gender (2017)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5672,6 +5691,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-27F6-4D84-9B41-3580975F1377}"/>
                 </c:ext>
@@ -5713,11 +5733,19 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-27F6-4D84-9B41-3580975F1377}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
@@ -5879,7 +5907,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Aortic Surgery</a:t>
+              <a:t>Aortic Surgery (2017)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6327,11 +6355,19 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Mitral Valve Surgery</a:t>
+              <a:t>First-Time Mitral Valve Surgery (2017)</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16859038695002387"/>
+          <c:y val="2.7500000902231002E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6596,6 +6632,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-7898-4875-BFEC-85BC297DD224}"/>
                 </c:ext>
@@ -6637,11 +6674,19 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-7898-4875-BFEC-85BC297DD224}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
@@ -6802,7 +6847,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Tricuspid Valve Surgery</a:t>
+              <a:t>Tricuspid Valve Surgery (2017)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -7162,6 +7207,13 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
@@ -7329,7 +7381,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>TGA</a:t>
+              <a:t>TGA (2017)</a:t>
             </a:r>
           </a:p>
         </c:rich>

--- a/template.xlsx
+++ b/template.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,7 +8,6 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Work\Audit\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="276" documentId="11360B5EED8C10B1E0E014C0753BA3E310DFD234" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{856E5E00-32FB-477B-9041-9883E1692974}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13128" windowHeight="6108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -252,7 +251,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>(Totals!$A$1,Totals!$A$5,Totals!$A$9,Totals!$A$13,Totals!$A$17,Totals!$A$21,Totals!$A$25,Totals!$A$29,Totals!$A$33)</c:f>
+              <c:f>(Totals!$A$1,Totals!$A$7,Totals!$A$13,Totals!$A$19,Totals!$A$25,Totals!$A$31,Totals!$A$37,Totals!$A$43,Totals!$A$49)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -288,7 +287,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Totals!$N$2,Totals!$N$6,Totals!$N$10,Totals!$N$14,Totals!$N$18,Totals!$N$22,Totals!$N$26,Totals!$N$30,Totals!$N$34)</c:f>
+              <c:f>(Totals!$N$2,Totals!$N$8,Totals!$N$14,Totals!$N$20,Totals!$N$26,Totals!$N$32,Totals!$N$38,Totals!$N$44,Totals!$N$50)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -317,7 +316,7 @@
                   <c:v>809</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1002</c:v>
+                  <c:v>1009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -837,7 +836,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>693</c:v>
+                  <c:v>694</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>144</c:v>
@@ -1125,28 +1124,28 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>73</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>85</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>71</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>102</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1291,31 +1290,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>57</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1469,22 +1468,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>24</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>24</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2288,7 +2287,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>312</c:v>
+                  <c:v>316</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>259</c:v>
@@ -2297,10 +2296,10 @@
                   <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>240</c:v>
+                  <c:v>241</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2614,7 +2613,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3.89</c:v>
+                  <c:v>3.88</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4.0199999999999996</c:v>
@@ -3037,7 +3036,7 @@
                   <c:v>269</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>312</c:v>
+                  <c:v>316</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3430,7 +3429,7 @@
                   <c:v>3.3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.89</c:v>
+                  <c:v>3.88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4221,7 +4220,7 @@
                   <c:v>18.309999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22.740000000000002</c:v>
+                  <c:v>22.73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5668,7 +5667,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>('2017'!$A$26,'2017'!$A$27,'2017'!$A$28,'2017'!$A$29,'2017'!$A$30,'2017'!$A$31,'2017'!$A$33,'2017'!$A$34)</c:f>
+              <c:f>('2017'!$A$28,'2017'!$A$29,'2017'!$A$30,'2017'!$A$31,'2017'!$A$32,'2017'!$A$33,'2017'!$A$35,'2017'!$A$36)</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -5700,7 +5699,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('2017'!$N$26,'2017'!$N$27,'2017'!$N$28,'2017'!$N$29,'2017'!$N$30,'2017'!$N$31,'2017'!$N$33,'2017'!$N$34)</c:f>
+              <c:f>('2017'!$N$28,'2017'!$N$29,'2017'!$N$30,'2017'!$N$31,'2017'!$N$32,'2017'!$N$33,'2017'!$N$35,'2017'!$N$36)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6116,7 +6115,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>('2017'!$A$52,'2017'!$A$53,'2017'!$A$56)</c:f>
+              <c:f>('2017'!$A$54,'2017'!$A$55,'2017'!$A$58)</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -6133,7 +6132,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('2017'!$N$52,'2017'!$N$53,'2017'!$N$56)</c:f>
+              <c:f>('2017'!$N$54,'2017'!$N$55,'2017'!$N$58)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -7088,7 +7087,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>(Totals!$A$1,Totals!$A$5,Totals!$A$9,Totals!$A$13,Totals!$A$17,Totals!$A$21,Totals!$A$25,Totals!$A$29,Totals!$A$33)</c:f>
+              <c:f>(Totals!$A$1,Totals!$A$7,Totals!$A$13,Totals!$A$19,Totals!$A$25,Totals!$A$31,Totals!$A$37,Totals!$A$43,Totals!$A$49)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -7124,7 +7123,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Totals!$O$2,Totals!$O$6,Totals!$O$10,Totals!$O$14,Totals!$O$18,Totals!$O$22,Totals!$O$26,Totals!$O$30,Totals!$O$34)</c:f>
+              <c:f>(Totals!$O$2,Totals!$O$8,Totals!$O$14,Totals!$O$20,Totals!$O$26,Totals!$O$32,Totals!$O$38,Totals!$O$44,Totals!$O$50)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -7153,7 +7152,7 @@
                   <c:v>67.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>83.5</c:v>
+                  <c:v>84.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7596,10 +7595,10 @@
                   <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>144</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>145</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>204</c:v>
@@ -7608,7 +7607,7 @@
                   <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>72</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8050,6 +8049,12 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.9481174042047779E-2"/>
+                  <c:y val="2.2916667418525813E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -8059,7 +8064,7 @@
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
+                  <a:noAutofit/>
                 </a:bodyPr>
                 <a:lstStyle/>
                 <a:p>
@@ -8076,7 +8081,7 @@
                   <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="outEnd"/>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="1"/>
@@ -8084,7 +8089,14 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.2186066030004076"/>
+                      <c:h val="0.19625833977225524"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-78D5-40C6-9209-FA18EB2F1AE8}"/>
                 </c:ext>
@@ -8101,7 +8113,7 @@
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
+                  <a:noAutofit/>
                 </a:bodyPr>
                 <a:lstStyle/>
                 <a:p>
@@ -8126,7 +8138,14 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.21315187426863416"/>
+                      <c:h val="0.20084167325596042"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-78D5-40C6-9209-FA18EB2F1AE8}"/>
                 </c:ext>
@@ -8136,8 +8155,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.9056795620789872E-2"/>
-                  <c:y val="-4.5833334837051664E-3"/>
+                  <c:x val="-6.6792706283500383E-2"/>
+                  <c:y val="-3.4375001127788752E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:spPr>
@@ -8149,7 +8168,7 @@
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
+                  <a:noAutofit/>
                 </a:bodyPr>
                 <a:lstStyle/>
                 <a:p>
@@ -8174,7 +8193,14 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.23902019993951845"/>
+                      <c:h val="0.19396631213800236"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-78D5-40C6-9209-FA18EB2F1AE8}"/>
                 </c:ext>
@@ -8261,22 +8287,22 @@
             <c:strLit>
               <c:ptCount val="4"/>
               <c:pt idx="0">
-                <c:v>&lt;1m</c:v>
+                <c:v>Neonates (&lt;1m)</c:v>
               </c:pt>
               <c:pt idx="1">
-                <c:v> 1m-1yr</c:v>
+                <c:v>Infants (1m-1yr)</c:v>
               </c:pt>
               <c:pt idx="2">
-                <c:v> 1yr-2yr</c:v>
+                <c:v>Toddlers (1yr-2yr)</c:v>
               </c:pt>
               <c:pt idx="3">
-                <c:v> &gt;2r</c:v>
+                <c:v>Children (&gt;2r)</c:v>
               </c:pt>
             </c:strLit>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2017'!$N$12:$N$15</c:f>
+              <c:f>'2017'!$N$14:$N$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -8284,13 +8310,13 @@
                   <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>215</c:v>
+                  <c:v>217</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>219</c:v>
+                  <c:v>221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8445,7 +8471,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2017'!$A$6</c:f>
+              <c:f>'2017'!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8553,47 +8579,43 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'2017'!$B$5:$M$5</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'2017'!$C$5:$M$5</c:f>
+              <c:f>'2017'!$B$7:$M$7</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>JAN</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>FEB</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>MAR</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>APR</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>MAY</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>JUN</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>JUL</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>AUG</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>SEP</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>OCT</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>NOV</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>DEC</c:v>
                 </c:pt>
               </c:strCache>
@@ -8601,34 +8623,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'2017'!$B$6:$M$6</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'2017'!$C$6:$M$6</c:f>
+              <c:f>'2017'!$B$8:$M$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>42</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>33</c:v>
@@ -8637,13 +8652,16 @@
                   <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>24</c:v>
+                <c:pt idx="11">
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8659,7 +8677,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2017'!$A$7</c:f>
+              <c:f>'2017'!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8767,47 +8785,43 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'2017'!$B$5:$M$5</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'2017'!$C$5:$M$5</c:f>
+              <c:f>'2017'!$B$7:$M$7</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>JAN</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>FEB</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>MAR</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>APR</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>MAY</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>JUN</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>JUL</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>AUG</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>SEP</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>OCT</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>NOV</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>DEC</c:v>
                 </c:pt>
               </c:strCache>
@@ -8815,49 +8829,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'2017'!$B$7:$M$7</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'2017'!$C$7:$M$7</c:f>
+              <c:f>'2017'!$B$9:$M$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>53</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>52</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>57</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>49</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>62</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>38</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>39</c:v>
+                <c:pt idx="11">
+                  <c:v>43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8890,7 +8900,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2017'!$A$8</c:f>
+              <c:f>'2017'!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9003,92 +9013,86 @@
           </c:dLbls>
           <c:cat>
             <c:strLit>
-              <c:ptCount val="12"/>
+              <c:ptCount val="13"/>
               <c:pt idx="0">
+                <c:v>JAN</c:v>
+              </c:pt>
+              <c:pt idx="1">
                 <c:v>FEB</c:v>
               </c:pt>
-              <c:pt idx="1">
+              <c:pt idx="2">
                 <c:v>MAR</c:v>
               </c:pt>
-              <c:pt idx="2">
+              <c:pt idx="3">
                 <c:v>APR</c:v>
               </c:pt>
-              <c:pt idx="3">
+              <c:pt idx="4">
                 <c:v>MAY</c:v>
               </c:pt>
-              <c:pt idx="4">
+              <c:pt idx="5">
                 <c:v>JUN</c:v>
               </c:pt>
-              <c:pt idx="5">
+              <c:pt idx="6">
                 <c:v>JUL</c:v>
               </c:pt>
-              <c:pt idx="6">
+              <c:pt idx="7">
                 <c:v>AUG</c:v>
               </c:pt>
-              <c:pt idx="7">
+              <c:pt idx="8">
                 <c:v>SEP</c:v>
               </c:pt>
-              <c:pt idx="8">
+              <c:pt idx="9">
                 <c:v>OCT</c:v>
               </c:pt>
-              <c:pt idx="9">
+              <c:pt idx="10">
                 <c:v>NOV</c:v>
               </c:pt>
-              <c:pt idx="10">
+              <c:pt idx="11">
                 <c:v>DEC</c:v>
               </c:pt>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:autoCat val="1"/>
-                </c:ext>
-              </c:extLst>
             </c:strLit>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'2017'!$B$8:$M$8</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'2017'!$C$8:$M$8</c:f>
+              <c:f>'2017'!$B$10:$M$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>95</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>87</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>77</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>91</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>89</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>90</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>82</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>97</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>84</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>63</c:v>
+                <c:pt idx="11">
+                  <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9246,6 +9250,16 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-CA27-4810-A1DB-EAAA249DF813}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -9284,80 +9298,57 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
+                <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strLit>
-              <c:ptCount val="12"/>
+              <c:ptCount val="13"/>
               <c:pt idx="0">
+                <c:v>JAN</c:v>
+              </c:pt>
+              <c:pt idx="1">
                 <c:v>FEB</c:v>
               </c:pt>
-              <c:pt idx="1">
+              <c:pt idx="2">
                 <c:v>MAR</c:v>
               </c:pt>
-              <c:pt idx="2">
+              <c:pt idx="3">
                 <c:v>APR</c:v>
               </c:pt>
-              <c:pt idx="3">
+              <c:pt idx="4">
                 <c:v>MAY</c:v>
               </c:pt>
-              <c:pt idx="4">
+              <c:pt idx="5">
                 <c:v>JUN</c:v>
               </c:pt>
-              <c:pt idx="5">
+              <c:pt idx="6">
                 <c:v>JUL</c:v>
               </c:pt>
-              <c:pt idx="6">
+              <c:pt idx="7">
                 <c:v>AUG</c:v>
               </c:pt>
-              <c:pt idx="7">
+              <c:pt idx="8">
                 <c:v>SEP</c:v>
               </c:pt>
-              <c:pt idx="8">
+              <c:pt idx="9">
                 <c:v>OCT</c:v>
               </c:pt>
-              <c:pt idx="9">
+              <c:pt idx="10">
                 <c:v>NOV</c:v>
               </c:pt>
-              <c:pt idx="10">
+              <c:pt idx="11">
                 <c:v>DEC</c:v>
               </c:pt>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:autoCat val="1"/>
-                </c:ext>
-              </c:extLst>
             </c:strLit>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>(Charts!$S$6,Charts!$S$6,Charts!$S$6,Charts!$S$6,Charts!$S$6,Charts!$S$6,Charts!$S$6,Charts!$S$6,Charts!$S$6,Charts!$S$6,Charts!$S$6,Charts!$S$6,Charts!$S$6)</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Charts!$S$6,Charts!$S$6,Charts!$S$6,Charts!$S$6,Charts!$S$6,Charts!$S$6,Charts!$S$6,Charts!$S$6,Charts!$S$6,Charts!$S$6,Charts!$S$6,Charts!$S$6)</c:f>
+              <c:f>(Charts!$S$6,Charts!$S$6,Charts!$S$6,Charts!$S$6,Charts!$S$6,Charts!$S$6,Charts!$S$6,Charts!$S$6,Charts!$S$6,Charts!$S$6,Charts!$S$6,Charts!$S$6,Charts!$S$6)</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>56.116666666666674</c:v>
                 </c:pt>
@@ -9392,6 +9383,9 @@
                   <c:v>56.116666666666674</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>56.116666666666674</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>56.116666666666674</c:v>
                 </c:pt>
               </c:numCache>
@@ -9918,7 +9912,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2017'!$A$6:$A$7</c:f>
+              <c:f>'2017'!$A$8:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -9932,15 +9926,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2017'!$N$6:$N$7</c:f>
+              <c:f>'2017'!$N$8:$N$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>417</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>585</c:v>
+                  <c:v>589</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10317,7 +10311,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2017'!$A$20:$A$21</c:f>
+              <c:f>'2017'!$A$22:$A$23</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -10331,15 +10325,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2017'!$N$20:$N$21</c:f>
+              <c:f>'2017'!$N$22:$N$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>587</c:v>
+                  <c:v>593</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>415</c:v>
+                  <c:v>416</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11250,13 +11244,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>102</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11755,7 +11749,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2017'!$A$39:$A$41</c:f>
+              <c:f>'2017'!$A$41:$A$43</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -11772,15 +11766,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2017'!$N$39:$N$41</c:f>
+              <c:f>'2017'!$N$41:$N$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>80</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
@@ -23740,8 +23734,8 @@
         <v>1</v>
       </c>
       <c r="S2" s="0">
-        <f>SUM(Totals!$N$2,Totals!$N$6,Totals!$N$10,Totals!$N$14,Totals!$N$18,Totals!$N$22,Totals!$N$26,Totals!$N$30,Totals!$N$34)</f>
-        <v>5230</v>
+        <f>SUM(Totals!N2,Totals!N8,Totals!N14,Totals!N20,Totals!N26,Totals!N32,Totals!N38,Totals!N44,Totals!N50)</f>
+        <v>5237</v>
       </c>
     </row>
     <row r="4">
@@ -23749,8 +23743,8 @@
         <v>2</v>
       </c>
       <c r="S4" s="1">
-        <f>AVERAGE(Totals!$O$2,Totals!$O$6,Totals!$O$10,Totals!$O$14,Totals!$O$18,Totals!$O$22,Totals!$O$26,Totals!$O$30,Totals!$O$34)</f>
-        <v>48.43333333333333</v>
+        <f>AVERAGE(Totals!O2,Totals!O8,Totals!O14,Totals!O20,Totals!O26,Totals!O32,Totals!O38,Totals!O44,Totals!O50)</f>
+        <v>48.5</v>
       </c>
     </row>
     <row r="6">
@@ -23758,7 +23752,7 @@
         <v>3</v>
       </c>
       <c r="S6" s="1">
-        <f>AVERAGE(Totals!$O$10,Totals!$O$14,Totals!$O$18,Totals!$O$22,Totals!$O$26,Totals!$O$30)</f>
+        <f>AVERAGE(Totals!O14,Totals!O20,Totals!O26,Totals!O32,Totals!O38,Totals!O44)</f>
         <v>56.116666666666674</v>
       </c>
     </row>

--- a/template.xlsx
+++ b/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Work\Audit\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="7EC710FB89F02E0E7911F7F8DA6095307B37E710" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{4EE1AB31-D028-4BEB-973E-EC1C7E7E05DD}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="7EC710FB89F02E0E7911F7F8DA6095307B37E710" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{4F273AB7-8A4E-491A-AE9C-C35C7CF4345C}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13128" windowHeight="6108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1001,8 +1001,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1019,27 +1020,22 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="31750" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="17"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -1166,7 +1162,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E4B1-43A6-84E5-A504D0134F8C}"/>
@@ -1188,27 +1183,22 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="31750" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="17"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -1335,7 +1325,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E4B1-43A6-84E5-A504D0134F8C}"/>
@@ -1357,27 +1346,22 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="31750" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="17"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -1504,7 +1488,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-E4B1-43A6-84E5-A504D0134F8C}"/>
@@ -1520,11 +1503,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
         <c:axId val="740697344"/>
         <c:axId val="740694720"/>
-      </c:lineChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="740697344"/>
         <c:scaling>
@@ -4595,8 +4578,9 @@
           <c:h val="0.60456656459609226"/>
         </c:manualLayout>
       </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -4613,11 +4597,34 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst>
               <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
@@ -4627,9 +4634,7 @@
               </a:outerShdw>
             </a:effectLst>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>(Procedures!$A$1,Procedures!$A$85,Procedures!$A$169,Procedures!$A$253,Procedures!$A$337,Procedures!$A$421,Procedures!$A$505,Procedures!$A$589,Procedures!$A$673)</c:f>
@@ -4702,7 +4707,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C8AB-48F8-AE70-50CB4DCDAC83}"/>
@@ -4724,11 +4728,34 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst>
               <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
@@ -4738,9 +4765,7 @@
               </a:outerShdw>
             </a:effectLst>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>(Procedures!$A$1,Procedures!$A$85,Procedures!$A$169,Procedures!$A$253,Procedures!$A$337,Procedures!$A$421,Procedures!$A$505,Procedures!$A$589,Procedures!$A$673)</c:f>
@@ -4813,7 +4838,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C8AB-48F8-AE70-50CB4DCDAC83}"/>
@@ -4835,11 +4859,34 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst>
               <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
@@ -4849,9 +4896,7 @@
               </a:outerShdw>
             </a:effectLst>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>(Procedures!$A$1,Procedures!$A$85,Procedures!$A$169,Procedures!$A$253,Procedures!$A$337,Procedures!$A$421,Procedures!$A$505,Procedures!$A$589,Procedures!$A$673)</c:f>
@@ -4924,7 +4969,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-C8AB-48F8-AE70-50CB4DCDAC83}"/>
@@ -4946,11 +4990,34 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst>
               <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
@@ -4960,9 +5027,7 @@
               </a:outerShdw>
             </a:effectLst>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>(Procedures!$A$1,Procedures!$A$85,Procedures!$A$169,Procedures!$A$253,Procedures!$A$337,Procedures!$A$421,Procedures!$A$505,Procedures!$A$589,Procedures!$A$673)</c:f>
@@ -5035,7 +5100,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-C8AB-48F8-AE70-50CB4DCDAC83}"/>
@@ -5057,11 +5121,34 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst>
               <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
@@ -5071,9 +5158,7 @@
               </a:outerShdw>
             </a:effectLst>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>(Procedures!$A$1,Procedures!$A$85,Procedures!$A$169,Procedures!$A$253,Procedures!$A$337,Procedures!$A$421,Procedures!$A$505,Procedures!$A$589,Procedures!$A$673)</c:f>
@@ -5146,7 +5231,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-C8AB-48F8-AE70-50CB4DCDAC83}"/>
@@ -5168,11 +5252,34 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst>
               <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
@@ -5182,9 +5289,7 @@
               </a:outerShdw>
             </a:effectLst>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>(Procedures!$A$1,Procedures!$A$85,Procedures!$A$169,Procedures!$A$253,Procedures!$A$337,Procedures!$A$421,Procedures!$A$505,Procedures!$A$589,Procedures!$A$673)</c:f>
@@ -5257,7 +5362,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-C8AB-48F8-AE70-50CB4DCDAC83}"/>
@@ -5272,10 +5376,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="789062664"/>
         <c:axId val="789062992"/>
-      </c:lineChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="789062664"/>
         <c:scaling>
@@ -5398,10 +5502,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11372069116360455"/>
+          <c:x val="6.0942913385826775E-2"/>
           <c:y val="0.81886410032079326"/>
-          <c:w val="0.80311417322834655"/>
-          <c:h val="0.153358121901429"/>
+          <c:w val="0.8862793088363955"/>
+          <c:h val="0.18113589967920676"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -6415,8 +6519,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -6433,27 +6538,22 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="31750" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="17"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -6580,7 +6680,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2820-47B6-8778-9EB098F8BFF9}"/>
@@ -6602,27 +6701,22 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="31750" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="17"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -6713,7 +6807,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2820-47B6-8778-9EB098F8BFF9}"/>
@@ -6729,11 +6822,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
         <c:axId val="675991320"/>
         <c:axId val="675992960"/>
-      </c:lineChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="675991320"/>
         <c:scaling>
@@ -6789,6 +6882,7 @@
         <c:axId val="675992960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="120"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -8652,11 +8746,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Mortality</a:t>
+              <a:t>Annual Mortality</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Precentage</a:t>
+              <a:t> Rate</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -10378,6 +10472,1150 @@
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Junior Training (2017)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:explosion val="10"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="10000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="127000" h="127000"/>
+                <a:bevelB w="127000" h="127000"/>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-2CAD-4A51-94AF-F13DEFF150EB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="10000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="127000" h="127000"/>
+                <a:bevelB w="127000" h="127000"/>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-2CAD-4A51-94AF-F13DEFF150EB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="10000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="127000" h="127000"/>
+                <a:bevelB w="127000" h="127000"/>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-2CAD-4A51-94AF-F13DEFF150EB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="10000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="127000" h="127000"/>
+                <a:bevelB w="127000" h="127000"/>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-2CAD-4A51-94AF-F13DEFF150EB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-2CAD-4A51-94AF-F13DEFF150EB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-2CAD-4A51-94AF-F13DEFF150EB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-2CAD-4A51-94AF-F13DEFF150EB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-2CAD-4A51-94AF-F13DEFF150EB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>
+            </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Trainers!$A$67:$A$70</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Carin van Doorn</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ahmed Afifi</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Ahmed Shazly</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hatem Hosny</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Trainers!$N$67:$N$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-2CAD-4A51-94AF-F13DEFF150EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Primary</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Operator vs Trainer</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> (2017)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Operated cases</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Surgeon!$A$3:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Carin_van_Doorn</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ahmed_Afifi</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Ahmed_Shazly</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hatem_Hosny</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Surgeon!$N$83:$N$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>206</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D1EF-421D-A54E-B812A7E900C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Training cases</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Surgeon!$A$3:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Carin_van_Doorn</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ahmed_Afifi</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Ahmed_Shazly</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hatem_Hosny</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Trainers!$N$67:$N$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D1EF-421D-A54E-B812A7E900C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="100"/>
+        <c:axId val="794627200"/>
+        <c:axId val="794628184"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="794627200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="794628184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="794628184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="250"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="794627200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -15100,6 +16338,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors24.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -22923,6 +24241,1028 @@
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="259">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="10000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d>
+        <a:bevelT w="127000" h="127000"/>
+        <a:bevelB w="127000" h="127000"/>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style24.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -27515,13 +29855,13 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>145</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>7696</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>100060</xdr:colOff>
       <xdr:row>159</xdr:row>
-      <xdr:rowOff>157019</xdr:rowOff>
+      <xdr:rowOff>164715</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -27890,6 +30230,82 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>100060</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>157018</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="27" name="Chart 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33BCF43D-A25F-45AF-88EE-1CD6D05DD65E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="28" name="Chart 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5086BE2-B2BE-4768-A3EB-D9DB521A9FD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 

--- a/template.xlsx
+++ b/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Work\Audit\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="107" documentId="7EC710FB89F02E0E7911F7F8DA6095307B37E710" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{4F273AB7-8A4E-491A-AE9C-C35C7CF4345C}"/>
+  <xr:revisionPtr revIDLastSave="130" documentId="7EC710FB89F02E0E7911F7F8DA6095307B37E710" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{A1CCBD8B-D364-4AB7-83EF-2D91F18E6A46}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13128" windowHeight="6108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">                               </t>
   </si>
   <si>
+    <t>Calculations</t>
+  </si>
+  <si>
     <t>Total till now</t>
+  </si>
+  <si>
+    <t>Total TGA</t>
+  </si>
+  <si>
+    <t>Total Mitral Surgery</t>
   </si>
   <si>
     <t>Average/month till now</t>
@@ -62,8 +71,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -91,9 +108,10 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -332,7 +350,7 @@
                   <c:v>809</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1017</c:v>
+                  <c:v>1018</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2286,7 +2304,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>319</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>262</c:v>
@@ -2612,7 +2630,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3.88</c:v>
+                  <c:v>3.84</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4.0199999999999996</c:v>
@@ -3035,7 +3053,7 @@
                   <c:v>269</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>319</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3428,7 +3446,7 @@
                   <c:v>3.3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.88</c:v>
+                  <c:v>3.84</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4219,7 +4237,7 @@
                   <c:v>18.309999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22.67</c:v>
+                  <c:v>22.630000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7665,36 +7683,36 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Surgeon!$A$82:$A$88</c:f>
+              <c:f>Surgeons!$A$82:$A$88</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Magdi_Yacoub</c:v>
+                  <c:v>Magdi Yacoub</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Carin_van_Doorn</c:v>
+                  <c:v>Carin van Doorn</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Ahmed_Afifi</c:v>
+                  <c:v>Ahmed Afifi</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Ahmed_Shazly</c:v>
+                  <c:v>Ahmed Shazly</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Hatem_Hosny</c:v>
+                  <c:v>Hatem Hosny</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Walid_Simry</c:v>
+                  <c:v>Walid Simry</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Ahmed_Mahgoub</c:v>
+                  <c:v>Ahmed Mahgoub</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Surgeon!$N$82:$N$88</c:f>
+              <c:f>Surgeons!$N$82:$N$88</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -7708,7 +7726,7 @@
                   <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>148</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>206</c:v>
@@ -8144,7 +8162,7 @@
                   <c:v>809</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1017</c:v>
+                  <c:v>1018</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9336,7 +9354,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>422</c:v>
+                  <c:v>423</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>595</c:v>
@@ -10589,8 +10607,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" cap="all" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Training </a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Junior Training (2017)</a:t>
+              <a:t>Juniors  (2017)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -11299,27 +11323,27 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Surgeon!$A$3:$A$6</c:f>
+              <c:f>Surgeons!$A$3:$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Carin_van_Doorn</c:v>
+                  <c:v>Carin van Doorn</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Ahmed_Afifi</c:v>
+                  <c:v>Ahmed Afifi</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Ahmed_Shazly</c:v>
+                  <c:v>Ahmed Shazly</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Hatem_Hosny</c:v>
+                  <c:v>Hatem Hosny</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Surgeon!$N$83:$N$86</c:f>
+              <c:f>Surgeons!$N$83:$N$86</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -11330,7 +11354,7 @@
                   <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>148</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>206</c:v>
@@ -11449,20 +11473,20 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Surgeon!$A$3:$A$6</c:f>
+              <c:f>Surgeons!$A$3:$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Carin_van_Doorn</c:v>
+                  <c:v>Carin van Doorn</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Ahmed_Afifi</c:v>
+                  <c:v>Ahmed Afifi</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Ahmed_Shazly</c:v>
+                  <c:v>Ahmed Shazly</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Hatem_Hosny</c:v>
+                  <c:v>Hatem Hosny</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12548,7 +12572,7 @@
                   <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>29</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12979,7 +13003,7 @@
                   <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>78</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13818,7 +13842,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>422</c:v>
+                  <c:v>423</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>595</c:v>
@@ -14217,7 +14241,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>596</c:v>
+                  <c:v>597</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>421</c:v>
@@ -30606,7 +30630,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:Z20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0"/>
   </sheetViews>
@@ -30619,56 +30643,174 @@
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
+      <c r="W1" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="R2" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S2" s="0">
         <f>SUM(Totals!N2,Totals!N8,Totals!N14,Totals!N20,Totals!N26,Totals!N32,Totals!N38,Totals!N44,Totals!N50)</f>
-        <v>5245</v>
+        <v>5246</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="X3" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z3" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="R4" s="0" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S4" s="1">
         <f>ROUND(AVERAGE(Totals!O2,Totals!O8,Totals!O14,Totals!O20,Totals!O26,Totals!O32,Totals!O38,Totals!O44,Totals!O50), 1)</f>
         <v>48.6</v>
       </c>
+      <c r="W4" s="0">
+        <v>2009</v>
+      </c>
+      <c r="X4" s="0">
+        <f>SUM((Procedures!$F$784,Procedures!$F$785))</f>
+        <v>2</v>
+      </c>
+      <c r="Z4" s="0">
+        <f>SUM('Non-redo Procedures'!$N$12,'Non-redo Procedures'!$N$13,'Non-redo Procedures'!$N$14)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="W5" s="0">
+        <v>2010</v>
+      </c>
+      <c r="X5" s="0">
+        <f>SUM(Procedures!$F$868,Procedures!$F$869)</f>
+        <v>5</v>
+      </c>
+      <c r="Z5" s="0">
+        <f>SUM('Non-redo Procedures'!$N$97,'Non-redo Procedures'!$N$98,'Non-redo Procedures'!$N$99)</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="6">
       <c r="R6" s="0" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S6" s="1">
         <f>ROUND(AVERAGE(Totals!O14,Totals!O20,Totals!O26,Totals!O32,Totals!O38,Totals!O44), 1)</f>
         <v>56.1</v>
       </c>
+      <c r="W6" s="0">
+        <v>2011</v>
+      </c>
+      <c r="X6" s="0">
+        <f>SUM(Procedures!$F$952,Procedures!$F$953)</f>
+        <v>10</v>
+      </c>
+      <c r="Z6" s="0">
+        <f>SUM('Non-redo Procedures'!$N$180,'Non-redo Procedures'!$N$181,'Non-redo Procedures'!$N$182)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="W7" s="0">
+        <v>2012</v>
+      </c>
+      <c r="X7" s="0">
+        <f>SUM(Procedures!$F$1036,Procedures!$F$1037)</f>
+        <v>17</v>
+      </c>
+      <c r="Z7" s="0">
+        <f>SUM('Non-redo Procedures'!$N$264,'Non-redo Procedures'!$N$265,'Non-redo Procedures'!$N$266)</f>
+        <v>120</v>
+      </c>
     </row>
     <row r="8">
       <c r="R8" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="W8" s="0">
+        <v>2013</v>
+      </c>
+      <c r="X8" s="0">
+        <f>SUM(Procedures!$F$1120,Procedures!$F$1121)</f>
+        <v>37</v>
+      </c>
+      <c r="Z8" s="0">
+        <f>SUM('Non-redo Procedures'!$N$348,'Non-redo Procedures'!$N$349,'Non-redo Procedures'!$N$350)</f>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="W9" s="0">
+        <v>2014</v>
+      </c>
+      <c r="X9" s="0">
+        <f>SUM(Procedures!$F$1204,Procedures!$F$1205)</f>
+        <v>92</v>
+      </c>
+      <c r="Z9" s="0">
+        <f>SUM('Non-redo Procedures'!$N$432,'Non-redo Procedures'!$N$433,'Non-redo Procedures'!$N$434)</f>
+        <v>161</v>
       </c>
     </row>
     <row r="10">
       <c r="R10" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="W10" s="0">
+        <v>2015</v>
+      </c>
+      <c r="X10" s="0">
+        <f>SUM(Procedures!$F$1288,Procedures!$F$1289)</f>
+        <v>99</v>
+      </c>
+      <c r="Z10" s="0">
+        <f>SUM('Non-redo Procedures'!$N$516,'Non-redo Procedures'!$N$517,'Non-redo Procedures'!$N$518)</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="W11" s="0">
+        <v>2016</v>
+      </c>
+      <c r="X11" s="0">
+        <f>SUM(Procedures!$F$1372,Procedures!$F$1373)</f>
+        <v>108</v>
+      </c>
+      <c r="Z11" s="0">
+        <f>SUM('Non-redo Procedures'!$N$600,'Non-redo Procedures'!$N$601,'Non-redo Procedures'!$N$602)</f>
+        <v>102</v>
       </c>
     </row>
     <row r="12">
       <c r="R12" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S12" s="0">
         <f>SUM(Totals!N3,Totals!N9,Totals!N15,Totals!N21,Totals!N27,Totals!N33,Totals!N39,Totals!N45,Totals!N51)</f>
         <v>312</v>
       </c>
+      <c r="W12" s="0">
+        <v>2017</v>
+      </c>
+      <c r="X12" s="0">
+        <f>SUM(Procedures!$F$1456,Procedures!$F$1457)</f>
+        <v>115</v>
+      </c>
+      <c r="Z12" s="0">
+        <f>SUM('Non-redo Procedures'!$N$684,'Non-redo Procedures'!$N$685,'Non-redo Procedures'!$N$686)</f>
+        <v>121</v>
+      </c>
     </row>
     <row r="14">
       <c r="R14" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="S14" s="0">
         <f>ROUND(AVERAGE(Totals!O3,Totals!O9,Totals!O15,Totals!O21,Totals!O27,Totals!O33,Totals!O39,Totals!O45,Totals!O51), 1)</f>
@@ -30677,7 +30819,7 @@
     </row>
     <row r="16">
       <c r="R16" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="S16" s="0">
         <f>ROUND(AVERAGE(Totals!O15,Totals!O21,Totals!O27,Totals!O33,Totals!O39,Totals!O45), 1)</f>
@@ -30686,7 +30828,7 @@
     </row>
     <row r="18">
       <c r="R18" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="S18" s="0">
         <f>ROUND(AVERAGE(Totals!N4,Totals!N10,Totals!N16,Totals!N22,Totals!N28,Totals!N34,Totals!N40,Totals!N46,Totals!N52),1)</f>
@@ -30695,7 +30837,7 @@
     </row>
     <row r="20">
       <c r="R20" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="S20" s="0">
         <f>ROUND(AVERAGE(Totals!N16,Totals!N22,Totals!N28,Totals!N34,Totals!N40,Totals!N46),1)</f>

--- a/template.xlsx
+++ b/template.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
@@ -8,7 +8,6 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Work\Audit\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="262" documentId="7EC710FB89F02E0E7911F7F8DA6095307B37E710" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{6D7A6881-18FE-4E8F-B720-D63FBD3B6289}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13128" windowHeight="6108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2112,13 +2111,13 @@
                   <c:v>843</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>836</c:v>
+                  <c:v>835</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>809</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1018</c:v>
+                  <c:v>1023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2638,7 +2637,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>696</c:v>
+                  <c:v>703</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>145</c:v>
@@ -2907,7 +2906,7 @@
                   <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>87</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2924,6 +2923,37 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>2009</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2010</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2011</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2012</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2013</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2014</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2015</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2016</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2017</c:v>
+                      </c:pt>
+                    </c:numCache>
                   </c:numRef>
                 </c15:cat>
               </c15:filteredCategoryTitle>
@@ -3066,6 +3096,37 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>2009</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2010</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2011</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2012</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2013</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2014</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2015</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2016</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2017</c:v>
+                      </c:pt>
+                    </c:numCache>
                   </c:numRef>
                 </c15:cat>
               </c15:filteredCategoryTitle>
@@ -3191,7 +3252,7 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3208,6 +3269,37 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>2009</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2010</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2011</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2012</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2013</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2014</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2015</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2016</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2017</c:v>
+                      </c:pt>
+                    </c:numCache>
                   </c:numRef>
                 </c15:cat>
               </c15:filteredCategoryTitle>
@@ -3342,6 +3434,37 @@
           <c:val>
             <c:numRef>
               <c:f>Charts!$Z$4:$Z$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>121</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -4142,7 +4265,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>320</c:v>
+                  <c:v>323</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>262</c:v>
@@ -4151,7 +4274,7 @@
                   <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>242</c:v>
+                  <c:v>244</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>24</c:v>
@@ -4468,16 +4591,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3.84</c:v>
+                  <c:v>3.85</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0199999999999996</c:v>
+                  <c:v>4.04</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.85</c:v>
+                  <c:v>3.87</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.56</c:v>
+                  <c:v>3.58</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>4.01</c:v>
@@ -4486,7 +4609,7 @@
                   <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.4300000000000002</c:v>
+                  <c:v>2.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4885,13 +5008,13 @@
                   <c:v>242</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>219</c:v>
+                  <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>269</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>320</c:v>
+                  <c:v>323</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5284,7 +5407,7 @@
                   <c:v>3.3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.84</c:v>
+                  <c:v>3.85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5379,7 +5502,7 @@
                   <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.0199999999999996</c:v>
+                  <c:v>4.04</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5465,7 +5588,7 @@
                   <c:v>3.07</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.17</c:v>
+                  <c:v>3.19</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>3.3</c:v>
@@ -5474,7 +5597,7 @@
                   <c:v>2.85</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.85</c:v>
+                  <c:v>3.87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5563,13 +5686,13 @@
                   <c:v>3.06</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.15</c:v>
+                  <c:v>3.13</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2.97</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.56</c:v>
+                  <c:v>3.58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5750,7 +5873,7 @@
                   <c:v>0.79</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.75</c:v>
+                  <c:v>0.67</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.57999999999999996</c:v>
@@ -5857,7 +5980,7 @@
                   <c:v>2.0499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.4300000000000002</c:v>
+                  <c:v>2.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6066,16 +6189,16 @@
                   <c:v>17.02</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.060000000000002</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.66</c:v>
+                  <c:v>18.639999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>18.309999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22.630000000000003</c:v>
+                  <c:v>22.67</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8484,6 +8607,37 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>2009</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2010</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2011</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2012</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2013</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2014</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2015</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2016</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2017</c:v>
+                      </c:pt>
+                    </c:numCache>
                   </c:numRef>
                 </c15:cat>
               </c15:filteredCategoryTitle>
@@ -8626,6 +8780,37 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>2009</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2010</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2011</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2012</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2013</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2014</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2015</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2016</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2017</c:v>
+                      </c:pt>
+                    </c:numCache>
                   </c:numRef>
                 </c15:cat>
               </c15:filteredCategoryTitle>
@@ -8760,6 +8945,37 @@
           <c:val>
             <c:numRef>
               <c:f>Charts!$X$4:$X$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>115</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -9211,13 +9427,13 @@
                   <c:v>70.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69.7</c:v>
+                  <c:v>69.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>67.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>84.8</c:v>
+                  <c:v>85.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9593,6 +9809,28 @@
           <c:val>
             <c:numRef>
               <c:f>Charts!$X$45:$X$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>116</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -9607,6 +9845,27 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>Aortic</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Mitral</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>CABG</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Myectomy</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>GUCH</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Others</c:v>
+                      </c:pt>
+                    </c:strCache>
                   </c:strRef>
                 </c15:cat>
               </c15:filteredCategoryTitle>
@@ -9968,6 +10227,31 @@
           <c:val>
             <c:numRef>
               <c:f>Charts!$AB$45:$AB$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>93</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -9982,6 +10266,30 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>VSD</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Valvular</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>TGA</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Arch</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>AV Canal</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>RVOT/PA</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Palliative</c:v>
+                      </c:pt>
+                    </c:strCache>
                   </c:strRef>
                 </c15:cat>
               </c15:filteredCategoryTitle>
@@ -10398,13 +10706,13 @@
                   <c:v>843</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>836</c:v>
+                  <c:v>835</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>809</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1018</c:v>
+                  <c:v>1023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10534,19 +10842,19 @@
                   <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>54</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>56</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>48</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10713,19 +11021,19 @@
                   <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.2</c:v>
+                  <c:v>7.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>6.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.7</c:v>
+                  <c:v>6.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>6.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.7</c:v>
+                  <c:v>4.5999999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11150,16 +11458,16 @@
                   <c:v>7.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.3</c:v>
+                  <c:v>6.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.4</c:v>
+                  <c:v>5.9</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.4</c:v>
+                  <c:v>6.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11177,6 +11485,37 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>2009</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2010</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2011</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2012</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2013</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2014</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2015</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2016</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2017</c:v>
+                      </c:pt>
+                    </c:numCache>
                   </c:numRef>
                 </c15:cat>
               </c15:filteredCategoryTitle>
@@ -11287,13 +11626,13 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>6.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>4.5999999999999996</c:v>
@@ -11317,6 +11656,37 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>2009</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2010</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2011</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2012</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2013</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2014</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2015</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2016</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2017</c:v>
+                      </c:pt>
+                    </c:numCache>
                   </c:numRef>
                 </c15:cat>
               </c15:filteredCategoryTitle>
@@ -11731,10 +12101,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>423</c:v>
+                  <c:v>424</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>595</c:v>
+                  <c:v>599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11903,7 +12273,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>6.4</c:v>
+                  <c:v>6.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3.5</c:v>
@@ -12351,6 +12721,37 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>2009</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2010</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2011</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2012</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2013</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2014</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2015</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2016</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2017</c:v>
+                      </c:pt>
+                    </c:numCache>
                   </c:numRef>
                 </c15:cat>
               </c15:filteredCategoryTitle>
@@ -12427,7 +12828,7 @@
                   <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>123</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>161</c:v>
@@ -12436,7 +12837,7 @@
                   <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>220</c:v>
+                  <c:v>221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12453,6 +12854,37 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>2009</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2010</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2011</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2012</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2013</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2014</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2015</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2016</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2017</c:v>
+                      </c:pt>
+                    </c:numCache>
                   </c:numRef>
                 </c15:cat>
               </c15:filteredCategoryTitle>
@@ -12526,13 +12958,13 @@
                   <c:v>20.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.5</c:v>
+                  <c:v>13.9</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>15.1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12550,6 +12982,37 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>2009</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2010</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2011</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2012</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2013</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2014</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2015</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2016</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2017</c:v>
+                      </c:pt>
+                    </c:numCache>
                   </c:numRef>
                 </c15:cat>
               </c15:filteredCategoryTitle>
@@ -12602,19 +13065,19 @@
                   <c:v>12.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.7</c:v>
+                  <c:v>21.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>8.1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.6999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.0999999999999996</c:v>
+                  <c:v>3.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12632,6 +13095,37 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>2009</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2010</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2011</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2012</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2013</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2014</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2015</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2016</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2017</c:v>
+                      </c:pt>
+                    </c:numCache>
                   </c:numRef>
                 </c15:cat>
               </c15:filteredCategoryTitle>
@@ -13127,7 +13621,7 @@
                   <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>140</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>42</c:v>
@@ -13286,16 +13780,16 @@
                   <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>77</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>164</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>108</c:v>
@@ -13475,16 +13969,16 @@
                   <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>87</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>149</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>206</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>156</c:v>
@@ -13915,16 +14409,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>87</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>149</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>206</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14212,6 +14706,22 @@
           <c:val>
             <c:numRef>
               <c:f>Charts!$X$30:$X$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>240</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -15488,13 +15998,13 @@
                   <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>220</c:v>
+                  <c:v>221</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>81</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>223</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15839,7 +16349,7 @@
                   <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16045,7 +16555,7 @@
                   <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>49</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16270,7 +16780,7 @@
                   <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>79</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17109,10 +17619,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>423</c:v>
+                  <c:v>424</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>595</c:v>
+                  <c:v>599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17508,10 +18018,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>597</c:v>
+                  <c:v>598</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>421</c:v>
+                  <c:v>425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18422,13 +18932,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>87</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -35091,9 +35601,9 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="18" max="18" customWidth="true" width="31.15625" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" hidden="true" width="8.83984375" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" hidden="true" width="14.20703125" collapsed="true"/>
-    <col min="24" max="29" customWidth="true" hidden="true" width="8.83984375" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="8.83984375" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="14.20703125" collapsed="true"/>
+    <col min="24" max="29" customWidth="true" width="8.83984375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.55000000000000004">

--- a/template.xlsx
+++ b/template.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
@@ -8,6 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Work\Audit\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="7" documentId="FC91A5086B230B3FBF10FC09D7C71FA5B6A8F71D" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{0AC225AB-5029-4F31-BF0F-51820CF1DB16}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13128" windowHeight="6108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2875,6 +2876,42 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Charts!$W$4:$W$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>('Non-redo Procedures'!$N$12,'Non-redo Procedures'!$N$96,'Non-redo Procedures'!$N$180,'Non-redo Procedures'!$N$264,'Non-redo Procedures'!$N$348,'Non-redo Procedures'!$N$432,'Non-redo Procedures'!$N$516,'Non-redo Procedures'!$N$600,'Non-redo Procedures'!$N$684)</c:f>
@@ -2912,52 +2949,6 @@
             </c:numRef>
           </c:val>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Charts!$W$4:$W$12</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="9"/>
-                      <c:pt idx="0">
-                        <c:v>2009</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>2010</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>2011</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>2012</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>2013</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>2014</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>2015</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>2016</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>2017</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0D1C-4DF4-A55B-055631EBA3AC}"/>
             </c:ext>
@@ -3048,6 +3039,42 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Charts!$W$4:$W$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>('Non-redo Procedures'!$N$13,'Non-redo Procedures'!$N$97,'Non-redo Procedures'!$N$181,'Non-redo Procedures'!$N$265,'Non-redo Procedures'!$N$349,'Non-redo Procedures'!$N$433,'Non-redo Procedures'!$N$517,'Non-redo Procedures'!$N$601,'Non-redo Procedures'!$N$685)</c:f>
@@ -3085,52 +3112,6 @@
             </c:numRef>
           </c:val>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Charts!$W$4:$W$12</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="9"/>
-                      <c:pt idx="0">
-                        <c:v>2009</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>2010</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>2011</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>2012</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>2013</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>2014</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>2015</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>2016</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>2017</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0D1C-4DF4-A55B-055631EBA3AC}"/>
             </c:ext>
@@ -3221,6 +3202,42 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Charts!$W$4:$W$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>('Non-redo Procedures'!$N$14,'Non-redo Procedures'!$N$98,'Non-redo Procedures'!$N$182,'Non-redo Procedures'!$N$266,'Non-redo Procedures'!$N$350,'Non-redo Procedures'!$N$434,'Non-redo Procedures'!$N$518,'Non-redo Procedures'!$N$602,'Non-redo Procedures'!$N$686)</c:f>
@@ -3258,52 +3275,6 @@
             </c:numRef>
           </c:val>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Charts!$W$4:$W$12</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="9"/>
-                      <c:pt idx="0">
-                        <c:v>2009</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>2010</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>2011</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>2012</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>2013</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>2014</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>2015</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>2016</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>2017</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-0D1C-4DF4-A55B-055631EBA3AC}"/>
             </c:ext>
@@ -8559,6 +8530,42 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Charts!$W$4:$W$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>(Procedures!$F$784,Procedures!$F$868,Procedures!$F$952,Procedures!$F$1036,Procedures!$F$1120,Procedures!$F$1204,Procedures!$F$1288,Procedures!$F$1372,Procedures!$F$1456)</c:f>
@@ -8596,52 +8603,6 @@
             </c:numRef>
           </c:val>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Charts!$W$4:$W$12</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="9"/>
-                      <c:pt idx="0">
-                        <c:v>2009</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>2010</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>2011</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>2012</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>2013</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>2014</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>2015</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>2016</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>2017</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-577D-40C4-BA44-72C291E4A942}"/>
             </c:ext>
@@ -8732,6 +8693,42 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Charts!$W$4:$W$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>(Procedures!$F$785,Procedures!$F$869,Procedures!$F$953,Procedures!$F$1037,Procedures!$F$1121,Procedures!$F$1205,Procedures!$F$1289,Procedures!$F$1373,Procedures!$F$1457)</c:f>
@@ -8769,52 +8766,6 @@
             </c:numRef>
           </c:val>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Charts!$W$4:$W$12</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="9"/>
-                      <c:pt idx="0">
-                        <c:v>2009</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>2010</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>2011</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>2012</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>2013</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>2014</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>2015</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>2016</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>2017</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-577D-40C4-BA44-72C291E4A942}"/>
             </c:ext>
@@ -9806,6 +9757,32 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$W$45:$W$50</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Aortic</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mitral</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CABG</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Myectomy</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GUCH</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Others</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Charts!$X$45:$X$50</c:f>
@@ -9834,44 +9811,8 @@
             </c:numRef>
           </c:val>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Charts!$W$45:$W$50</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="6"/>
-                      <c:pt idx="0">
-                        <c:v>Aortic</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Mitral</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>CABG</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>Myectomy</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>GUCH</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>Others</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2E26-48FC-988A-BB3B51A9D6D6}"/>
+              <c16:uniqueId val="{00000000-8E96-4CD1-A367-229070BA562C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10224,6 +10165,35 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$AA$45:$AA$51</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>VSD</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Valvular</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TGA</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Arch</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>AV Canal</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>RVOT/PA</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Palliative</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Charts!$AB$45:$AB$51</c:f>
@@ -10255,47 +10225,8 @@
             </c:numRef>
           </c:val>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Charts!$AA$45:$AA$51</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="7"/>
-                      <c:pt idx="0">
-                        <c:v>VSD</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Valvular</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>TGA</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>Arch</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>AV Canal</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>RVOT/PA</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>Palliative</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9C91-4BBD-ACC5-40DF4426B9E4}"/>
+              <c16:uniqueId val="{00000001-A4B5-41BD-BC33-02D1E18567DB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11436,6 +11367,42 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Charts!$W$4:$W$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>('Adults-Peds Mortality'!$F$4,'Adults-Peds Mortality'!$F$13,'Adults-Peds Mortality'!$F$22,'Adults-Peds Mortality'!$F$31,'Adults-Peds Mortality'!$F$40,'Adults-Peds Mortality'!$F$49,'Adults-Peds Mortality'!$F$58,'Adults-Peds Mortality'!$F$67,'Adults-Peds Mortality'!$F$76)</c:f>
@@ -11474,52 +11441,6 @@
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Charts!$W$4:$W$12</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="9"/>
-                      <c:pt idx="0">
-                        <c:v>2009</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>2010</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>2011</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>2012</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>2013</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>2014</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>2015</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>2016</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>2017</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A392-44C3-85A2-15AF7DF2F836}"/>
             </c:ext>
@@ -11607,6 +11528,42 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Charts!$W$4:$W$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>('Adults-Peds Mortality'!$F$7,'Adults-Peds Mortality'!$F$16,'Adults-Peds Mortality'!$F$25,'Adults-Peds Mortality'!$F$34,'Adults-Peds Mortality'!$F$43,'Adults-Peds Mortality'!$F$52,'Adults-Peds Mortality'!$F$61,'Adults-Peds Mortality'!$F$70,'Adults-Peds Mortality'!$F$79)</c:f>
@@ -11645,52 +11602,6 @@
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Charts!$W$4:$W$12</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="9"/>
-                      <c:pt idx="0">
-                        <c:v>2009</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>2010</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>2011</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>2012</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>2013</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>2014</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>2015</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>2016</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>2017</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A392-44C3-85A2-15AF7DF2F836}"/>
             </c:ext>
@@ -12673,6 +12584,42 @@
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Charts!$W$4:$W$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>('Ped. Age Groups Mortality'!$F$2,'Ped. Age Groups Mortality'!$F$17,'Ped. Age Groups Mortality'!$F$32,'Ped. Age Groups Mortality'!$F$47,'Ped. Age Groups Mortality'!$F$62,'Ped. Age Groups Mortality'!$F$77,'Ped. Age Groups Mortality'!$F$92,'Ped. Age Groups Mortality'!$F$107,'Ped. Age Groups Mortality'!$F$122)</c:f>
@@ -12710,52 +12657,6 @@
             </c:numRef>
           </c:val>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Charts!$W$4:$W$12</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="9"/>
-                      <c:pt idx="0">
-                        <c:v>2009</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>2010</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>2011</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>2012</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>2013</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>2014</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>2015</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>2016</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>2017</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A6CC-4700-9711-D0752BC1D93D}"/>
             </c:ext>
@@ -12806,6 +12707,42 @@
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Charts!$W$4:$W$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>('Ped. Age Groups Mortality'!$F$5,'Ped. Age Groups Mortality'!$F$20,'Ped. Age Groups Mortality'!$F$35,'Ped. Age Groups Mortality'!$F$50,'Ped. Age Groups Mortality'!$F$65,'Ped. Age Groups Mortality'!$F$80,'Ped. Age Groups Mortality'!$F$95,'Ped. Age Groups Mortality'!$F$110,'Ped. Age Groups Mortality'!$F$125)</c:f>
@@ -12843,52 +12780,6 @@
             </c:numRef>
           </c:val>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Charts!$W$4:$W$12</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="9"/>
-                      <c:pt idx="0">
-                        <c:v>2009</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>2010</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>2011</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>2012</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>2013</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>2014</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>2015</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>2016</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>2017</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A6CC-4700-9711-D0752BC1D93D}"/>
             </c:ext>
@@ -12933,6 +12824,42 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Charts!$W$4:$W$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>('Ped. Age Groups Mortality'!$F$4,'Ped. Age Groups Mortality'!$F$19,'Ped. Age Groups Mortality'!$F$34,'Ped. Age Groups Mortality'!$F$49,'Ped. Age Groups Mortality'!$F$64,'Ped. Age Groups Mortality'!$F$79,'Ped. Age Groups Mortality'!$F$94,'Ped. Age Groups Mortality'!$F$109,'Ped. Age Groups Mortality'!$F$124)</c:f>
@@ -12971,52 +12898,6 @@
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Charts!$W$4:$W$12</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="9"/>
-                      <c:pt idx="0">
-                        <c:v>2009</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>2010</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>2011</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>2012</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>2013</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>2014</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>2015</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>2016</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>2017</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A6CC-4700-9711-D0752BC1D93D}"/>
             </c:ext>
@@ -13046,6 +12927,42 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Charts!$W$4:$W$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>('Ped. Age Groups Mortality'!$F$7,'Ped. Age Groups Mortality'!$F$22,'Ped. Age Groups Mortality'!$F$37,'Ped. Age Groups Mortality'!$F$52,'Ped. Age Groups Mortality'!$F$67,'Ped. Age Groups Mortality'!$F$82,'Ped. Age Groups Mortality'!$F$97,'Ped. Age Groups Mortality'!$F$112,'Ped. Age Groups Mortality'!$F$127)</c:f>
@@ -13084,52 +13001,6 @@
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Charts!$W$4:$W$12</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="9"/>
-                      <c:pt idx="0">
-                        <c:v>2009</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>2010</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>2011</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>2012</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>2013</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>2014</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>2015</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>2016</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>2017</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-A6CC-4700-9711-D0752BC1D93D}"/>
             </c:ext>

--- a/template.xlsx
+++ b/template.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Work\Audit\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="FC91A5086B230B3FBF10FC09D7C71FA5B6A8F71D" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{0AC225AB-5029-4F31-BF0F-51820CF1DB16}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="FC91A5086B230B3FBF10FC09D7C71FA5B6A8F71D" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{B0DA9F1F-5A87-45B7-9878-2226E96E8907}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13128" windowHeight="6108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Charts" sheetId="13" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7541" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9150" uniqueCount="218">
   <si>
     <t xml:space="preserve">                               </t>
   </si>
@@ -29,12 +29,6 @@
   </si>
   <si>
     <t>Average/month till now</t>
-  </si>
-  <si>
-    <t>Average/month (2011-2016)</t>
-  </si>
-  <si>
-    <t>Average in this Q (2011-2016)</t>
   </si>
   <si>
     <t>Total in this Q</t>
@@ -46,19 +40,7 @@
     <t>Average mortality/month till now</t>
   </si>
   <si>
-    <t>Average mortality/month (2011-2016)</t>
-  </si>
-  <si>
     <t>Average Percent Mortality till now</t>
-  </si>
-  <si>
-    <t>Average Percent Mortality (2011-2016)</t>
-  </si>
-  <si>
-    <t>Adults 2017</t>
-  </si>
-  <si>
-    <t>Pediatrics 2017</t>
   </si>
   <si>
     <t>JAN</t>
@@ -633,6 +615,66 @@
   <si>
     <t>VSD</t>
   </si>
+  <si>
+    <t xml:space="preserve">Removal Repositioning of VAD driveline </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cardiac Mass Other than Myxoma </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surgery for EMF </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECMO Mechanical support </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAVI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RV PA Conduit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debanding </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evacuation of Pericardial Collection </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Cardiac Surgery </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tracheostomy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plastic Surgery </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vascular Surgery </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neurosurgery </t>
+  </si>
+  <si>
+    <t xml:space="preserve">General Surgery </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Non Cardiac Surgery </t>
+  </si>
+  <si>
+    <t>Average/month (2011-2017)</t>
+  </si>
+  <si>
+    <t>Average in this Q (2011-2017)</t>
+  </si>
+  <si>
+    <t>Average mortality/month (2011-2017)</t>
+  </si>
+  <si>
+    <t>Average Percent Mortality (2011-2017)</t>
+  </si>
 </sst>
 </file>
 
@@ -641,7 +683,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="119" x14ac:knownFonts="1">
+  <fonts count="117" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -661,16 +703,6 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -1281,7 +1313,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1516,6 +1548,12 @@
         <bgColor rgb="FFADD8E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1529,357 +1567,356 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="62" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="68" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="71" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="74" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="77" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="80" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="83" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="86" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="89" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="92" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="95" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="98" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="101" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="104" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="107" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="110" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="113" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="116" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2053,10 +2090,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>(Totals!$A$1,Totals!$A$7,Totals!$A$13,Totals!$A$19,Totals!$A$25,Totals!$A$31,Totals!$A$37,Totals!$A$43,Totals!$A$49)</c:f>
+              <c:f>(Totals!$A$1,Totals!$A$7,Totals!$A$13,Totals!$A$19,Totals!$A$25,Totals!$A$31,Totals!$A$37,Totals!$A$43,Totals!$A$49,Totals!$A$55)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2009</c:v>
                 </c:pt>
@@ -2083,16 +2120,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Totals!$N$2,Totals!$N$8,Totals!$N$14,Totals!$N$20,Totals!$N$26,Totals!$N$32,Totals!$N$38,Totals!$N$44,Totals!$N$50)</c:f>
+              <c:f>(Totals!$N$2,Totals!$N$8,Totals!$N$14,Totals!$N$20,Totals!$N$26,Totals!$N$32,Totals!$N$38,Totals!$N$44,Totals!$N$50,Totals!$N$56)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>80</c:v>
                 </c:pt>
@@ -2112,13 +2152,16 @@
                   <c:v>843</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>835</c:v>
+                  <c:v>831</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>809</c:v>
+                  <c:v>806</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1023</c:v>
+                  <c:v>1015</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>267</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2350,7 +2393,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Redo Operations (2017)</a:t>
+              <a:t>Redo Operations (2018)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2619,7 +2662,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Redo!$A$50:$A$51</c:f>
+              <c:f>Redo!$A$56:$A$57</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2633,15 +2676,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Redo!$N$50:$N$51</c:f>
+              <c:f>Redo!$N$56:$N$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>703</c:v>
+                  <c:v>163</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>145</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2800,7 +2843,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Mitral Valve Repair </c:v>
+                  <c:v>Plication of Diaphragm </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2878,10 +2921,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Charts!$W$4:$W$12</c:f>
+              <c:f>Charts!$W$4:$W$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2009</c:v>
                 </c:pt>
@@ -2908,6 +2951,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2918,33 +2964,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>88</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2963,7 +2982,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MVR Mechanical </c:v>
+                  <c:v>Delayed Chest Closure </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3041,10 +3060,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Charts!$W$4:$W$12</c:f>
+              <c:f>Charts!$W$4:$W$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2009</c:v>
                 </c:pt>
@@ -3071,6 +3090,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3081,33 +3103,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3126,7 +3121,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MVR Stented Bioprosthesis </c:v>
+                  <c:v>Rewiring </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3204,10 +3199,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Charts!$W$4:$W$12</c:f>
+              <c:f>Charts!$W$4:$W$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2009</c:v>
                 </c:pt>
@@ -3234,6 +3229,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3244,33 +3242,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>19</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3409,31 +3380,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>52</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>120</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>177</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>161</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>110</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>102</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>121</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3700,7 +3671,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Residence (2017)</a:t>
+              <a:t>Residence (2018)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4208,7 +4179,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>City!$A$74:$A$78</c:f>
+              <c:f>City!$A$83:$A$87</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -4231,24 +4202,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>City!$N$74:$N$78</c:f>
+              <c:f>City!$N$83:$N$87</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>323</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>262</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>170</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>244</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4357,7 +4328,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Week Days (2017)</a:t>
+              <a:t>Week Days (2018)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4528,7 +4499,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Week days'!$A$90:$A$96</c:f>
+              <c:f>'Week days'!$A$101:$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -4557,30 +4528,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Week days'!$N$90:$N$96</c:f>
+              <c:f>'Week days'!$N$101:$N$107</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3.85</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.04</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.87</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.58</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.01</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.92</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4920,10 +4891,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>(City!$A$1,City!$A$10,City!$A$19,City!$A$28,City!$A$37,City!$A$46,City!$A$55,City!$A$64,City!$A$73)</c:f>
+              <c:f>Charts!$W$4:$W$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2009</c:v>
                 </c:pt>
@@ -4950,16 +4921,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(City!$N$2,City!$N$11,City!$N$20,City!$N$29,City!$N$38,City!$N$47,City!$N$56,City!$N$65,City!$N$74)</c:f>
+              <c:f>(City!$N$2,City!$N$11,City!$N$20,City!$N$29,City!$N$38,City!$N$47,City!$N$56,City!$N$65,City!$N$74,City!$N$83)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -4967,7 +4941,7 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>93</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>115</c:v>
@@ -4979,13 +4953,16 @@
                   <c:v>242</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>218</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>269</c:v>
+                  <c:v>267</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>323</c:v>
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5313,10 +5290,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>('Week days'!$A$1,'Week days'!$A$12,'Week days'!$A$23,'Week days'!$A$34,'Week days'!$A$45,'Week days'!$A$56,'Week days'!$A$67,'Week days'!$A$78,'Week days'!$A$89)</c:f>
+              <c:f>Charts!$W$4:$W$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2009</c:v>
                 </c:pt>
@@ -5343,42 +5320,48 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('Week days'!$N$2,'Week days'!$N$13,'Week days'!$N$24,'Week days'!$N$35,'Week days'!$N$46,'Week days'!$N$57,'Week days'!$N$68,'Week days'!$N$79,'Week days'!$N$90)</c:f>
+              <c:f>('Week days'!$N$2,'Week days'!$N$13,'Week days'!$N$24,'Week days'!$N$35,'Week days'!$N$46,'Week days'!$N$57,'Week days'!$N$68,'Week days'!$N$79,'Week days'!$N$90,'Week days'!$N$101)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.74</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.29</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.68</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.52</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.19</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.3</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.85</c:v>
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5442,38 +5425,80 @@
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Charts!$W$4:$W$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('Week days'!$N$3,'Week days'!$N$14,'Week days'!$N$25,'Week days'!$N$36,'Week days'!$N$47,'Week days'!$N$58,'Week days'!$N$69,'Week days'!$N$80,'Week days'!$N$91)</c:f>
+              <c:f>('Week days'!$N$3,'Week days'!$N$14,'Week days'!$N$25,'Week days'!$N$36,'Week days'!$N$47,'Week days'!$N$58,'Week days'!$N$69,'Week days'!$N$80,'Week days'!$N$91,'Week days'!$N$102)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.25</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.29</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0699999999999998</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.73</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.13</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.42</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.19</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.04</c:v>
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5537,38 +5562,80 @@
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Charts!$W$4:$W$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('Week days'!$N$4,'Week days'!$N$15,'Week days'!$N$26,'Week days'!$N$37,'Week days'!$N$48,'Week days'!$N$59,'Week days'!$N$70,'Week days'!$N$81,'Week days'!$N$92)</c:f>
+              <c:f>('Week days'!$N$4,'Week days'!$N$15,'Week days'!$N$26,'Week days'!$N$37,'Week days'!$N$48,'Week days'!$N$59,'Week days'!$N$70,'Week days'!$N$81,'Week days'!$N$92,'Week days'!$N$103)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.92</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.31</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5499999999999998</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.07</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.19</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.85</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.87</c:v>
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5632,38 +5699,80 @@
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Charts!$W$4:$W$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('Week days'!$N$5,'Week days'!$N$16,'Week days'!$N$27,'Week days'!$N$38,'Week days'!$N$49,'Week days'!$N$60,'Week days'!$N$71,'Week days'!$N$82,'Week days'!$N$93)</c:f>
+              <c:f>('Week days'!$N$5,'Week days'!$N$16,'Week days'!$N$27,'Week days'!$N$38,'Week days'!$N$49,'Week days'!$N$60,'Week days'!$N$71,'Week days'!$N$82,'Week days'!$N$93,'Week days'!$N$104)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.08</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1200000000000001</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.89</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.96</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.94</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.06</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.13</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.97</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.58</c:v>
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5727,38 +5836,80 @@
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Charts!$W$4:$W$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('Week days'!$N$6,'Week days'!$N$17,'Week days'!$N$28,'Week days'!$N$39,'Week days'!$N$50,'Week days'!$N$61,'Week days'!$N$72,'Week days'!$N$83,'Week days'!$N$94)</c:f>
+              <c:f>('Week days'!$N$6,'Week days'!$N$17,'Week days'!$N$28,'Week days'!$N$39,'Week days'!$N$50,'Week days'!$N$61,'Week days'!$N$72,'Week days'!$N$83,'Week days'!$N$94,'Week days'!$N$105)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.17</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4300000000000002</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2400000000000002</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.06</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.75</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.74</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.01</c:v>
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5822,38 +5973,80 @@
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Charts!$W$4:$W$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('Week days'!$N$7,'Week days'!$N$18,'Week days'!$N$29,'Week days'!$N$40,'Week days'!$N$51,'Week days'!$N$62,'Week days'!$N$73,'Week days'!$N$84,'Week days'!$N$95)</c:f>
+              <c:f>('Week days'!$N$7,'Week days'!$N$18,'Week days'!$N$29,'Week days'!$N$40,'Week days'!$N$51,'Week days'!$N$62,'Week days'!$N$73,'Week days'!$N$84,'Week days'!$N$95,'Week days'!$N$106)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.57999999999999996</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.08</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.92</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.57999999999999996</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.79</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.67</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.57999999999999996</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.92</c:v>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5920,38 +6113,80 @@
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Charts!$W$4:$W$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('Week days'!$N$8,'Week days'!$N$19,'Week days'!$N$30,'Week days'!$N$41,'Week days'!$N$52,'Week days'!$N$63,'Week days'!$N$74,'Week days'!$N$85,'Week days'!$N$96)</c:f>
+              <c:f>('Week days'!$N$8,'Week days'!$N$19,'Week days'!$N$30,'Week days'!$N$41,'Week days'!$N$52,'Week days'!$N$63,'Week days'!$N$74,'Week days'!$N$85,'Week days'!$N$96,'Week days'!$N$107)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.17</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.12</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.71</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.08</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0499999999999998</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.4</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5993,13 +6228,7 @@
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
@@ -6042,13 +6271,7 @@
                 </a:solidFill>
                 <a:round/>
               </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
+              <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:dLbls>
@@ -6140,36 +6363,39 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>('Week days'!$N$9,'Week days'!$N$20,'Week days'!$N$31,'Week days'!$N$42,'Week days'!$N$53,'Week days'!$N$64,'Week days'!$N$75,'Week days'!$N$86,'Week days'!$N$97)</c:f>
+              <c:f>('Week days'!$N$9,'Week days'!$N$20,'Week days'!$N$31,'Week days'!$N$42,'Week days'!$N$53,'Week days'!$N$64,'Week days'!$N$75,'Week days'!$N$86,'Week days'!$N$97,'Week days'!$N$108)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6.67</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.99</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.48</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.95</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.02</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.639999999999997</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.309999999999999</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22.67</c:v>
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6306,7 +6532,7 @@
         <c:axId val="683539400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="25"/>
+          <c:max val="27"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -6541,7 +6767,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ross </c:v>
+                  <c:v>Aorto Pulmonary Window Repair </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6586,40 +6812,36 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>(Procedures!$A$1,Procedures!$A$85,Procedures!$A$169,Procedures!$A$253,Procedures!$A$337,Procedures!$A$421,Procedures!$A$505,Procedures!$A$589,Procedures!$A$673)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2009</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2010</c:v>
+                  <c:v>Cardiac Mass Other than Myxoma </c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2011</c:v>
+                  <c:v>Aorto Pulmonary Window Repair </c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2012</c:v>
+                  <c:v>AV Canal Repair Partial </c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2013</c:v>
+                  <c:v>ALCAPA Repair </c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2015</c:v>
+                  <c:v>TVR Stented Bioprosthesis </c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2016</c:v>
+                  <c:v>Removal Repositioning of VAD driveline </c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2017</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>Resection of Subaortic Membrane </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -6631,28 +6853,28 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>5</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6672,7 +6894,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Freestyle </c:v>
+                  <c:v>Fontan </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6717,40 +6939,36 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>(Procedures!$A$1,Procedures!$A$85,Procedures!$A$169,Procedures!$A$253,Procedures!$A$337,Procedures!$A$421,Procedures!$A$505,Procedures!$A$589,Procedures!$A$673)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2009</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2010</c:v>
+                  <c:v>Cardiac Mass Other than Myxoma </c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2011</c:v>
+                  <c:v>Aorto Pulmonary Window Repair </c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2012</c:v>
+                  <c:v>AV Canal Repair Partial </c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2013</c:v>
+                  <c:v>ALCAPA Repair </c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2015</c:v>
+                  <c:v>TVR Stented Bioprosthesis </c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2016</c:v>
+                  <c:v>Removal Repositioning of VAD driveline </c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2017</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>Resection of Subaortic Membrane </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -6762,28 +6980,28 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>58</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>47</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6803,7 +7021,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Aortic Valve Repair </c:v>
+                  <c:v>Glenn </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6848,40 +7066,36 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>(Procedures!$A$1,Procedures!$A$85,Procedures!$A$169,Procedures!$A$253,Procedures!$A$337,Procedures!$A$421,Procedures!$A$505,Procedures!$A$589,Procedures!$A$673)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2009</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2010</c:v>
+                  <c:v>Cardiac Mass Other than Myxoma </c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2011</c:v>
+                  <c:v>Aorto Pulmonary Window Repair </c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2012</c:v>
+                  <c:v>AV Canal Repair Partial </c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2013</c:v>
+                  <c:v>ALCAPA Repair </c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2015</c:v>
+                  <c:v>TVR Stented Bioprosthesis </c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2016</c:v>
+                  <c:v>Removal Repositioning of VAD driveline </c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2017</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>Resection of Subaortic Membrane </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -6893,28 +7107,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>11</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>19</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6934,7 +7148,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AVR Mechanical </c:v>
+                  <c:v>DKS </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6979,40 +7193,36 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>(Procedures!$A$1,Procedures!$A$85,Procedures!$A$169,Procedures!$A$253,Procedures!$A$337,Procedures!$A$421,Procedures!$A$505,Procedures!$A$589,Procedures!$A$673)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2009</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2010</c:v>
+                  <c:v>Cardiac Mass Other than Myxoma </c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2011</c:v>
+                  <c:v>Aorto Pulmonary Window Repair </c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2012</c:v>
+                  <c:v>AV Canal Repair Partial </c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2013</c:v>
+                  <c:v>ALCAPA Repair </c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2015</c:v>
+                  <c:v>TVR Stented Bioprosthesis </c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2016</c:v>
+                  <c:v>Removal Repositioning of VAD driveline </c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2017</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>Resection of Subaortic Membrane </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -7027,25 +7237,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>29</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7065,7 +7275,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AVR Stented Bioprosthesis </c:v>
+                  <c:v>Atrial Septectomy </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7110,40 +7320,36 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>(Procedures!$A$1,Procedures!$A$85,Procedures!$A$169,Procedures!$A$253,Procedures!$A$337,Procedures!$A$421,Procedures!$A$505,Procedures!$A$589,Procedures!$A$673)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2009</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2010</c:v>
+                  <c:v>Cardiac Mass Other than Myxoma </c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2011</c:v>
+                  <c:v>Aorto Pulmonary Window Repair </c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2012</c:v>
+                  <c:v>AV Canal Repair Partial </c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2013</c:v>
+                  <c:v>ALCAPA Repair </c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2015</c:v>
+                  <c:v>TVR Stented Bioprosthesis </c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2016</c:v>
+                  <c:v>Removal Repositioning of VAD driveline </c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2017</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>Resection of Subaortic Membrane </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -7158,25 +7364,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7196,7 +7402,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Valve-sparing Aortic Root </c:v>
+                  <c:v>MBT Shunt </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7241,40 +7447,36 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>(Procedures!$A$1,Procedures!$A$85,Procedures!$A$169,Procedures!$A$253,Procedures!$A$337,Procedures!$A$421,Procedures!$A$505,Procedures!$A$589,Procedures!$A$673)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2009</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2010</c:v>
+                  <c:v>Cardiac Mass Other than Myxoma </c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2011</c:v>
+                  <c:v>Aorto Pulmonary Window Repair </c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2012</c:v>
+                  <c:v>AV Canal Repair Partial </c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2013</c:v>
+                  <c:v>ALCAPA Repair </c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2015</c:v>
+                  <c:v>TVR Stented Bioprosthesis </c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2016</c:v>
+                  <c:v>Removal Repositioning of VAD driveline </c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2017</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>Resection of Subaortic Membrane </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -7289,25 +7491,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7566,7 +7768,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Aortic Surgery (2017)</a:t>
+              <a:t>Aortic Surgery (2018)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -7709,7 +7911,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>('2017'!$A$28,'2017'!$A$29,'2017'!$A$30,'2017'!$A$31,'2017'!$A$32,'2017'!$A$33,'2017'!$A$35,'2017'!$A$36)</c:f>
+              <c:f>(Year!$A$28,Year!$A$29,Year!$A$30,Year!$A$31,Year!$A$32,Year!$A$33,Year!$A$35,Year!$A$36)</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -7741,33 +7943,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('2017'!$N$28,'2017'!$N$29,'2017'!$N$30,'2017'!$N$31,'2017'!$N$32,'2017'!$N$33,'2017'!$N$35,'2017'!$N$36)</c:f>
+              <c:f>(Year!$N$28,Year!$N$29,Year!$N$30,Year!$N$31,Year!$N$32,Year!$N$33,Year!$N$35,Year!$N$36)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7986,7 +8188,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>TGA (2017)</a:t>
+              <a:t>TGA (2018)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -8157,7 +8359,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>('2017'!$A$54,'2017'!$A$55,'2017'!$A$58)</c:f>
+              <c:f>(Year!$A$54,Year!$A$55,Year!$A$58)</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -8174,18 +8376,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('2017'!$N$54,'2017'!$N$55,'2017'!$N$58)</c:f>
+              <c:f>(Year!$N$54,Year!$N$55,Year!$N$58)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>96</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8450,7 +8652,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Procedures!$A$1456</c:f>
+              <c:f>Procedures!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8532,10 +8734,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Charts!$W$4:$W$12</c:f>
+              <c:f>Charts!$W$4:$W$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2009</c:v>
                 </c:pt>
@@ -8562,16 +8764,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Procedures!$F$784,Procedures!$F$868,Procedures!$F$952,Procedures!$F$1036,Procedures!$F$1120,Procedures!$F$1204,Procedures!$F$1288,Procedures!$F$1372,Procedures!$F$1456)</c:f>
+              <c:f>(Procedures!$N$28,Procedures!$N$129,Procedures!$N$230,Procedures!$N$331,Procedures!$N$432,Procedures!$N$533,Procedures!$N$634,Procedures!$N$735,Procedures!$N$836,Procedures!$N$937)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -8598,6 +8803,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8613,7 +8821,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Procedures!$A$1457</c:f>
+              <c:f>Procedures!$A$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8695,10 +8903,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Charts!$W$4:$W$12</c:f>
+              <c:f>Charts!$W$4:$W$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2009</c:v>
                 </c:pt>
@@ -8725,16 +8933,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Procedures!$F$785,Procedures!$F$869,Procedures!$F$953,Procedures!$F$1037,Procedures!$F$1121,Procedures!$F$1205,Procedures!$F$1289,Procedures!$F$1373,Procedures!$F$1457)</c:f>
+              <c:f>(Procedures!$N$29,Procedures!$N$130,Procedures!$N$231,Procedures!$N$332,Procedures!$N$433,Procedures!$N$534,Procedures!$N$635,Procedures!$N$736,Procedures!$N$837,Procedures!$N$938)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8754,13 +8965,16 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8895,10 +9109,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Charts!$X$4:$X$12</c:f>
+              <c:f>Charts!$X$4:$X$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -8918,13 +9132,16 @@
                   <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>99</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>115</c:v>
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9319,10 +9536,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>(Totals!$A$1,Totals!$A$7,Totals!$A$13,Totals!$A$19,Totals!$A$25,Totals!$A$31,Totals!$A$37,Totals!$A$43,Totals!$A$49)</c:f>
+              <c:f>(Totals!$A$1,Totals!$A$7,Totals!$A$13,Totals!$A$19,Totals!$A$25,Totals!$A$31,Totals!$A$37,Totals!$A$43,Totals!$A$49,Totals!$A$55)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2009</c:v>
                 </c:pt>
@@ -9349,42 +9566,48 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Totals!$O$2,Totals!$O$8,Totals!$O$14,Totals!$O$20,Totals!$O$26,Totals!$O$32,Totals!$O$38,Totals!$O$44,Totals!$O$50)</c:f>
+              <c:f>(Totals!$O$2,Totals!$O$8,Totals!$O$14,Totals!$O$20,Totals!$O$26,Totals!$O$32,Totals!$O$38,Totals!$O$44,Totals!$O$50,Totals!$O$56)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6.7</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.1</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39.6</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>62.7</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70.2</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69.599999999999994</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>67.400000000000006</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>85.2</c:v>
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>89</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9790,22 +10013,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>64</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>183</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>93</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>48</c:v>
+                  <c:v>380</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>116</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10201,25 +10424,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>127</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>82</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>117</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>111</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>93</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10578,10 +10801,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>(Totals!$A$1,Totals!$A$7,Totals!$A$13,Totals!$A$19,Totals!$A$25,Totals!$A$31,Totals!$A$37,Totals!$A$43,Totals!$A$49)</c:f>
+              <c:f>Charts!$W$4:$W$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2009</c:v>
                 </c:pt>
@@ -10608,16 +10831,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Totals!$N$2,Totals!$N$8,Totals!$N$14,Totals!$N$20,Totals!$N$26,Totals!$N$32,Totals!$N$38,Totals!$N$44,Totals!$N$50)</c:f>
+              <c:f>(Totals!$N$2,Totals!$N$8,Totals!$N$14,Totals!$N$20,Totals!$N$26,Totals!$N$32,Totals!$N$38,Totals!$N$44,Totals!$N$50,Totals!$N$56)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>80</c:v>
                 </c:pt>
@@ -10637,13 +10863,16 @@
                   <c:v>843</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>835</c:v>
+                  <c:v>831</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>809</c:v>
+                  <c:v>806</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1023</c:v>
+                  <c:v>1015</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>267</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10754,12 +10983,51 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Charts!$W$4:$W$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Totals!$N$3,Totals!$N$9,Totals!$N$15,Totals!$N$21,Totals!$N$27,Totals!$N$33,Totals!$N$39,Totals!$N$45,Totals!$N$51)</c:f>
+              <c:f>(Totals!$N$3,Totals!$N$9,Totals!$N$15,Totals!$N$21,Totals!$N$27,Totals!$N$33,Totals!$N$39,Totals!$N$45,Totals!$N$51,Totals!$N$57)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -10779,13 +11047,16 @@
                   <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>53</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>47</c:v>
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10935,10 +11206,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>(Totals!$N$4,Totals!$N$10,Totals!$N$16,Totals!$N$22,Totals!$N$28,Totals!$N$34,Totals!$N$40,Totals!$N$46,Totals!$N$52)</c:f>
+              <c:f>(Totals!$N$4,Totals!$N$10,Totals!$N$16,Totals!$N$22,Totals!$N$28,Totals!$N$34,Totals!$N$40,Totals!$N$46,Totals!$N$52,Totals!$N$58)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1.2</c:v>
                 </c:pt>
@@ -10961,10 +11232,13 @@
                   <c:v>6.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.2</c:v>
+                  <c:v>6.1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.5999999999999996</c:v>
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11369,10 +11643,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Charts!$W$4:$W$12</c:f>
+              <c:f>Charts!$W$4:$W$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2009</c:v>
                 </c:pt>
@@ -11399,16 +11673,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('Adults-Peds Mortality'!$F$4,'Adults-Peds Mortality'!$F$13,'Adults-Peds Mortality'!$F$22,'Adults-Peds Mortality'!$F$31,'Adults-Peds Mortality'!$F$40,'Adults-Peds Mortality'!$F$49,'Adults-Peds Mortality'!$F$58,'Adults-Peds Mortality'!$F$67,'Adults-Peds Mortality'!$F$76)</c:f>
+              <c:f>('Adults-Peds Mortality'!$F$4,'Adults-Peds Mortality'!$F$13,'Adults-Peds Mortality'!$F$22,'Adults-Peds Mortality'!$F$31,'Adults-Peds Mortality'!$F$40,'Adults-Peds Mortality'!$F$49,'Adults-Peds Mortality'!$F$58,'Adults-Peds Mortality'!$F$67,'Adults-Peds Mortality'!$F$76,'Adults-Peds Mortality'!$F$85)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2.2000000000000002</c:v>
                 </c:pt>
@@ -11428,13 +11705,16 @@
                   <c:v>6.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.9</c:v>
+                  <c:v>5.7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.3000000000000007</c:v>
+                  <c:v>8.1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.1</c:v>
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11530,10 +11810,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Charts!$W$4:$W$12</c:f>
+              <c:f>Charts!$W$4:$W$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2009</c:v>
                 </c:pt>
@@ -11560,16 +11840,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('Adults-Peds Mortality'!$F$7,'Adults-Peds Mortality'!$F$16,'Adults-Peds Mortality'!$F$25,'Adults-Peds Mortality'!$F$34,'Adults-Peds Mortality'!$F$43,'Adults-Peds Mortality'!$F$52,'Adults-Peds Mortality'!$F$61,'Adults-Peds Mortality'!$F$70,'Adults-Peds Mortality'!$F$79)</c:f>
+              <c:f>('Adults-Peds Mortality'!$F$7,'Adults-Peds Mortality'!$F$16,'Adults-Peds Mortality'!$F$25,'Adults-Peds Mortality'!$F$34,'Adults-Peds Mortality'!$F$43,'Adults-Peds Mortality'!$F$52,'Adults-Peds Mortality'!$F$61,'Adults-Peds Mortality'!$F$70,'Adults-Peds Mortality'!$F$79,'Adults-Peds Mortality'!$F$88)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11596,6 +11879,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12007,15 +12293,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('Adults-Peds Mortality'!$F$74,'Adults-Peds Mortality'!$F$77)</c:f>
+              <c:f>('Adults-Peds Mortality'!$F$83,'Adults-Peds Mortality'!$F$86)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>424</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>599</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12179,15 +12465,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('Adults-Peds Mortality'!$F$76,'Adults-Peds Mortality'!$F$79)</c:f>
+              <c:f>('Adults-Peds Mortality'!$F$85,'Adults-Peds Mortality'!$F$88)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>6.1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.5</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12586,10 +12872,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Charts!$W$4:$W$12</c:f>
+              <c:f>Charts!$W$4:$W$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2009</c:v>
                 </c:pt>
@@ -12616,16 +12902,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('Ped. Age Groups Mortality'!$F$2,'Ped. Age Groups Mortality'!$F$17,'Ped. Age Groups Mortality'!$F$32,'Ped. Age Groups Mortality'!$F$47,'Ped. Age Groups Mortality'!$F$62,'Ped. Age Groups Mortality'!$F$77,'Ped. Age Groups Mortality'!$F$92,'Ped. Age Groups Mortality'!$F$107,'Ped. Age Groups Mortality'!$F$122)</c:f>
+              <c:f>('Ped. Age Groups Mortality'!$F$2,'Ped. Age Groups Mortality'!$F$17,'Ped. Age Groups Mortality'!$F$32,'Ped. Age Groups Mortality'!$F$47,'Ped. Age Groups Mortality'!$F$62,'Ped. Age Groups Mortality'!$F$77,'Ped. Age Groups Mortality'!$F$92,'Ped. Age Groups Mortality'!$F$107,'Ped. Age Groups Mortality'!$F$122,'Ped. Age Groups Mortality'!$F$137)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -12651,7 +12940,10 @@
                   <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>71</c:v>
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12709,10 +13001,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Charts!$W$4:$W$12</c:f>
+              <c:f>Charts!$W$4:$W$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2009</c:v>
                 </c:pt>
@@ -12739,16 +13031,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('Ped. Age Groups Mortality'!$F$5,'Ped. Age Groups Mortality'!$F$20,'Ped. Age Groups Mortality'!$F$35,'Ped. Age Groups Mortality'!$F$50,'Ped. Age Groups Mortality'!$F$65,'Ped. Age Groups Mortality'!$F$80,'Ped. Age Groups Mortality'!$F$95,'Ped. Age Groups Mortality'!$F$110,'Ped. Age Groups Mortality'!$F$125)</c:f>
+              <c:f>('Ped. Age Groups Mortality'!$F$5,'Ped. Age Groups Mortality'!$F$20,'Ped. Age Groups Mortality'!$F$35,'Ped. Age Groups Mortality'!$F$50,'Ped. Age Groups Mortality'!$F$65,'Ped. Age Groups Mortality'!$F$80,'Ped. Age Groups Mortality'!$F$95,'Ped. Age Groups Mortality'!$F$110,'Ped. Age Groups Mortality'!$F$125,'Ped. Age Groups Mortality'!$F$140)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -12774,7 +13069,10 @@
                   <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>221</c:v>
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12826,10 +13124,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Charts!$W$4:$W$12</c:f>
+              <c:f>Charts!$W$4:$W$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2009</c:v>
                 </c:pt>
@@ -12856,16 +13154,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('Ped. Age Groups Mortality'!$F$4,'Ped. Age Groups Mortality'!$F$19,'Ped. Age Groups Mortality'!$F$34,'Ped. Age Groups Mortality'!$F$49,'Ped. Age Groups Mortality'!$F$64,'Ped. Age Groups Mortality'!$F$79,'Ped. Age Groups Mortality'!$F$94,'Ped. Age Groups Mortality'!$F$109,'Ped. Age Groups Mortality'!$F$124)</c:f>
+              <c:f>('Ped. Age Groups Mortality'!$F$4,'Ped. Age Groups Mortality'!$F$19,'Ped. Age Groups Mortality'!$F$34,'Ped. Age Groups Mortality'!$F$49,'Ped. Age Groups Mortality'!$F$64,'Ped. Age Groups Mortality'!$F$79,'Ped. Age Groups Mortality'!$F$94,'Ped. Age Groups Mortality'!$F$109,'Ped. Age Groups Mortality'!$F$124,'Ped. Age Groups Mortality'!$F$139)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12891,7 +13192,10 @@
                   <c:v>15.1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.5</c:v>
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12929,10 +13233,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Charts!$W$4:$W$12</c:f>
+              <c:f>Charts!$W$4:$W$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2009</c:v>
                 </c:pt>
@@ -12959,16 +13263,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('Ped. Age Groups Mortality'!$F$7,'Ped. Age Groups Mortality'!$F$22,'Ped. Age Groups Mortality'!$F$37,'Ped. Age Groups Mortality'!$F$52,'Ped. Age Groups Mortality'!$F$67,'Ped. Age Groups Mortality'!$F$82,'Ped. Age Groups Mortality'!$F$97,'Ped. Age Groups Mortality'!$F$112,'Ped. Age Groups Mortality'!$F$127)</c:f>
+              <c:f>('Ped. Age Groups Mortality'!$F$7,'Ped. Age Groups Mortality'!$F$22,'Ped. Age Groups Mortality'!$F$37,'Ped. Age Groups Mortality'!$F$52,'Ped. Age Groups Mortality'!$F$67,'Ped. Age Groups Mortality'!$F$82,'Ped. Age Groups Mortality'!$F$97,'Ped. Age Groups Mortality'!$F$112,'Ped. Age Groups Mortality'!$F$127,'Ped. Age Groups Mortality'!$F$142)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12994,7 +13301,10 @@
                   <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.6</c:v>
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13306,7 +13616,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Surgeons (2017)</a:t>
+              <a:t>Surgeons (2018)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -13478,30 +13788,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Adult Surgeons'!$F$82:$F$88</c:f>
+              <c:f>'Adult Surgeons'!$F$92:$F$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>68</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>141</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13643,30 +13953,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Pediatric Surgeons'!$F$82:$F$88</c:f>
+              <c:f>'Pediatric Surgeons'!$F$92:$F$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>99</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>165</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>108</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13832,30 +14142,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Surgeons!$N$82:$N$88</c:f>
+              <c:f>Surgeons!$N$92:$N$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>99</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>88</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>147</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>151</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>207</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>156</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>75</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14113,7 +14423,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t> (2017)</a:t>
+              <a:t> (2018)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -14275,21 +14585,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Surgeons!$N$83:$N$86</c:f>
+              <c:f>Surgeons!$N$93:$N$96</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>88</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>147</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>151</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>207</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14425,21 +14735,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Trainers!$N$67:$N$70</c:f>
+              <c:f>Trainers!$N$75:$N$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14581,16 +14891,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>106</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>152</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>172</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>240</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14847,7 +15157,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Juniors  (2017)</a:t>
+              <a:t>Juniors  (2018)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -15240,8 +15550,7 @@
             <c:showSerName val="0"/>
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
-            <c:separator>
-            </c:separator>
+            <c:separator>, </c:separator>
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
               <c:spPr>
@@ -15283,21 +15592,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Trainers!$N$67:$N$70</c:f>
+              <c:f>Trainers!$N$75:$N$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15406,7 +15715,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Pediatric Age Groups (2017)</a:t>
+              <a:t>Pediatric Age Groups (2018)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -15861,21 +16170,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2017'!$N$14:$N$17</c:f>
+              <c:f>Year!$N$14:$N$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>71</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>221</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>82</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>225</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15984,7 +16293,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Adults - Pediatrics (2017)</a:t>
+              <a:t>Adults - Pediatrics (2018)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -16030,7 +16339,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2017'!$A$8</c:f>
+              <c:f>Year!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -16138,7 +16447,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2017'!$B$7:$M$7</c:f>
+              <c:f>Year!$B$7:$M$7</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -16182,45 +16491,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2017'!$B$8:$M$8</c:f>
+              <c:f>Year!$B$8:$M$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>28</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>35</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>46</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>31</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16236,7 +16545,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2017'!$A$9</c:f>
+              <c:f>Year!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -16344,7 +16653,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2017'!$B$7:$M$7</c:f>
+              <c:f>Year!$B$7:$M$7</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -16388,45 +16697,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2017'!$B$9:$M$9</c:f>
+              <c:f>Year!$B$9:$M$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>52</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>52</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>56</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>57</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>49</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>62</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>38</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>53</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16459,7 +16768,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2017'!$A$10</c:f>
+              <c:f>Year!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -16613,45 +16922,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2017'!$B$10:$M$10</c:f>
+              <c:f>Year!$B$10:$M$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>80</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>95</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>87</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>77</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>91</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>67</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>89</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>90</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>82</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>97</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>84</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>84</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16672,7 +16981,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Average/month (2011-2016)</c:v>
+                  <c:v>Average/month (2011-2017)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -16909,43 +17218,43 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>56.1</c:v>
+                  <c:v>61.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56.1</c:v>
+                  <c:v>61.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56.1</c:v>
+                  <c:v>61.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56.1</c:v>
+                  <c:v>61.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>56.1</c:v>
+                  <c:v>61.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>56.1</c:v>
+                  <c:v>61.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>56.1</c:v>
+                  <c:v>61.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>56.1</c:v>
+                  <c:v>61.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>56.1</c:v>
+                  <c:v>61.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>56.1</c:v>
+                  <c:v>61.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>56.1</c:v>
+                  <c:v>61.6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>56.1</c:v>
+                  <c:v>61.6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>56.1</c:v>
+                  <c:v>61.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16954,6 +17263,303 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-F7E6-4E79-8F2D-08CD1E355863}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Average/month (2017)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003D-3753-452F-A6CE-18BAB44334DD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003C-3753-452F-A6CE-18BAB44334DD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003B-3753-452F-A6CE-18BAB44334DD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003A-3753-452F-A6CE-18BAB44334DD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000039-3753-452F-A6CE-18BAB44334DD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000038-3753-452F-A6CE-18BAB44334DD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000037-3753-452F-A6CE-18BAB44334DD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000036-3753-452F-A6CE-18BAB44334DD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000035-3753-452F-A6CE-18BAB44334DD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000034-3753-452F-A6CE-18BAB44334DD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000033-3753-452F-A6CE-18BAB44334DD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000032-3753-452F-A6CE-18BAB44334DD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="13"/>
+              <c:pt idx="0">
+                <c:v>JAN</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>FEB</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>MAR</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>APR</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>MAY</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>JUN</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>JUL</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>AUG</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>SEP</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>OCT</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>NOV</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>DEC</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Totals!$O$50,Totals!$O$50,Totals!$O$50,Totals!$O$50,Totals!$O$50,Totals!$O$50,Totals!$O$50,Totals!$O$50,Totals!$O$50,Totals!$O$50,Totals!$O$50,Totals!$O$50,Totals!$O$50)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000031-3753-452F-A6CE-18BAB44334DD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -17195,7 +17801,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Adults - Pediatrics (2017)</a:t>
+              <a:t>Adults - Pediatrics (2018)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -17313,7 +17919,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-D7B5-48D9-8FB1-C3B09BB840A5}"/>
+                <c16:uniqueId val="{00000005-A554-4067-A0D3-812D73E757A9}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17345,7 +17951,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-D7B5-48D9-8FB1-C3B09BB840A5}"/>
+                <c16:uniqueId val="{00000006-A554-4067-A0D3-812D73E757A9}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17388,7 +17994,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-D7B5-48D9-8FB1-C3B09BB840A5}"/>
+                  <c16:uniqueId val="{00000005-A554-4067-A0D3-812D73E757A9}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -17430,7 +18036,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-D7B5-48D9-8FB1-C3B09BB840A5}"/>
+                  <c16:uniqueId val="{00000006-A554-4067-A0D3-812D73E757A9}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -17449,7 +18055,7 @@
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:separator>
-            </c:separator>
+</c:separator>
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
               <c:spPr>
@@ -17471,7 +18077,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2017'!$A$8:$A$9</c:f>
+              <c:f>Year!$A$8:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -17485,22 +18091,22 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2017'!$N$8:$N$9</c:f>
+              <c:f>Year!$N$8:$N$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>424</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>599</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-D7B5-48D9-8FB1-C3B09BB840A5}"/>
+              <c16:uniqueId val="{00000004-A554-4067-A0D3-812D73E757A9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -17870,7 +18476,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2017'!$A$22:$A$23</c:f>
+              <c:f>Year!$A$22:$A$23</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -17884,15 +18490,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2017'!$N$22:$N$23</c:f>
+              <c:f>Year!$N$22:$N$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>598</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>425</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18122,10 +18728,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>('Ped. Age Groups'!$A$1,'Ped. Age Groups'!$A$9,'Ped. Age Groups'!$A$17,'Ped. Age Groups'!$A$25,'Ped. Age Groups'!$A$33,'Ped. Age Groups'!$A$41,'Ped. Age Groups'!$A$49,'Ped. Age Groups'!$A$57,'Ped. Age Groups'!$A$65)</c:f>
+              <c:f>('Ped. Age Groups'!$A$1,'Ped. Age Groups'!$A$9,'Ped. Age Groups'!$A$17,'Ped. Age Groups'!$A$25,'Ped. Age Groups'!$A$33,'Ped. Age Groups'!$A$41,'Ped. Age Groups'!$A$49,'Ped. Age Groups'!$A$57,'Ped. Age Groups'!$A$65,'Ped. Age Groups'!$A$73)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2009</c:v>
                 </c:pt>
@@ -18152,16 +18758,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('Ped. Age Groups'!$N$2,'Ped. Age Groups'!$N$10,'Ped. Age Groups'!$N$18,'Ped. Age Groups'!$N$26,'Ped. Age Groups'!$N$34,'Ped. Age Groups'!$N$42,'Ped. Age Groups'!$N$50,'Ped. Age Groups'!$N$58,'Ped. Age Groups'!$N$66)</c:f>
+              <c:f>('Ped. Age Groups'!$N$2,'Ped. Age Groups'!$N$10,'Ped. Age Groups'!$N$18,'Ped. Age Groups'!$N$26,'Ped. Age Groups'!$N$34,'Ped. Age Groups'!$N$42,'Ped. Age Groups'!$N$50,'Ped. Age Groups'!$N$58,'Ped. Age Groups'!$N$66,'Ped. Age Groups'!$N$74)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -18187,7 +18796,10 @@
                   <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>71</c:v>
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18785,13 +19397,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Mitral Valve Repair </c:v>
+                  <c:v>Plication of Diaphragm </c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>MVR Mechanical </c:v>
+                  <c:v>Delayed Chest Closure </c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>MVR Stented Bioprosthesis </c:v>
+                  <c:v>Rewiring </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -18802,15 +19414,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -19308,7 +19911,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2017'!$A$41:$A$43</c:f>
+              <c:f>Year!$A$41:$A$43</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -19325,15 +19928,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2017'!$N$41:$N$43</c:f>
+              <c:f>Year!$N$41:$N$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>83</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
@@ -35075,99 +35678,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>9535</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9153525" cy="9153525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>437557</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 1" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9153525" cy="9153525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -35465,9 +35975,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC51"/>
+  <dimension ref="A1:AC130"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="99" workbookViewId="0">
+      <selection activeCell="R25" sqref="R25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -35482,7 +35994,7 @@
         <v>0</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.55000000000000004">
@@ -35490,16 +36002,16 @@
         <v>1</v>
       </c>
       <c r="S2">
-        <f>SUM(Totals!N2,Totals!N8,Totals!N14,Totals!N20,Totals!N26,Totals!N32,Totals!N38,Totals!N44,Totals!N50)</f>
-        <v>5246</v>
+        <f>SUM(Totals!N2,Totals!N8,Totals!N14,Totals!N20,Totals!N26,Totals!N32,Totals!N38,Totals!N44,Totals!N50,Totals!N56)</f>
+        <v>5502</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="X3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="Z3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.55000000000000004">
@@ -35507,19 +36019,19 @@
         <v>2</v>
       </c>
       <c r="S4" s="1">
-        <f>ROUND(AVERAGE(Totals!O2,Totals!O8,Totals!O14,Totals!O20,Totals!O26,Totals!O32,Totals!O38,Totals!O44,Totals!O50), 1)</f>
-        <v>48.6</v>
+        <f>ROUND(AVERAGE(Totals!O2,Totals!O8,Totals!O14,Totals!O20,Totals!O26,Totals!O32,Totals!O38,Totals!O44,Totals!O50,Totals!O56), 1)</f>
+        <v>55.5</v>
       </c>
       <c r="W4">
         <v>2009</v>
       </c>
       <c r="X4">
-        <f>SUM((Procedures!$F$784,Procedures!$F$785))</f>
+        <f>SUM((Procedures!$N$28,Procedures!$N$29))</f>
         <v>2</v>
       </c>
       <c r="Z4">
         <f>SUM('Non-redo Procedures'!$N$12,'Non-redo Procedures'!$N$13,'Non-redo Procedures'!$N$14)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.55000000000000004">
@@ -35527,32 +36039,32 @@
         <v>2010</v>
       </c>
       <c r="X5">
-        <f>SUM(Procedures!$F$868,Procedures!$F$869)</f>
+        <f>SUM(Procedures!$N$129,Procedures!$N$130)</f>
         <v>5</v>
       </c>
       <c r="Z5">
         <f>SUM('Non-redo Procedures'!$N$97,'Non-redo Procedures'!$N$98,'Non-redo Procedures'!$N$99)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="R6" t="s">
-        <v>3</v>
+        <v>214</v>
       </c>
       <c r="S6" s="1">
-        <f>ROUND(AVERAGE(Totals!O14,Totals!O20,Totals!O26,Totals!O32,Totals!O38,Totals!O44), 1)</f>
-        <v>56.1</v>
+        <f>ROUND(AVERAGE(Totals!O14,Totals!O20,Totals!O26,Totals!O32,Totals!O38,Totals!O44,Totals!O50), 1)</f>
+        <v>61.6</v>
       </c>
       <c r="W6">
         <v>2011</v>
       </c>
       <c r="X6">
-        <f>SUM(Procedures!$F$952,Procedures!$F$953)</f>
+        <f>SUM(Procedures!$N$230,Procedures!$N$231)</f>
         <v>10</v>
       </c>
       <c r="Z6">
         <f>SUM('Non-redo Procedures'!$N$180,'Non-redo Procedures'!$N$181,'Non-redo Procedures'!$N$182)</f>
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.55000000000000004">
@@ -35560,28 +36072,28 @@
         <v>2012</v>
       </c>
       <c r="X7">
-        <f>SUM(Procedures!$F$1036,Procedures!$F$1037)</f>
+        <f>SUM(Procedures!$N$331,Procedures!$N$332)</f>
         <v>17</v>
       </c>
       <c r="Z7">
         <f>SUM('Non-redo Procedures'!$N$264,'Non-redo Procedures'!$N$265,'Non-redo Procedures'!$N$266)</f>
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="R8" t="s">
-        <v>4</v>
+        <v>215</v>
       </c>
       <c r="W8">
         <v>2013</v>
       </c>
       <c r="X8">
-        <f>SUM(Procedures!$F$1120,Procedures!$F$1121)</f>
+        <f>SUM(Procedures!$N$432,Procedures!$N$433)</f>
         <v>37</v>
       </c>
       <c r="Z8">
         <f>SUM('Non-redo Procedures'!$N$348,'Non-redo Procedures'!$N$349,'Non-redo Procedures'!$N$350)</f>
-        <v>177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.55000000000000004">
@@ -35589,28 +36101,28 @@
         <v>2014</v>
       </c>
       <c r="X9">
-        <f>SUM(Procedures!$F$1204,Procedures!$F$1205)</f>
+        <f>SUM(Procedures!$N$533,Procedures!$N$534)</f>
         <v>92</v>
       </c>
       <c r="Z9">
         <f>SUM('Non-redo Procedures'!$N$432,'Non-redo Procedures'!$N$433,'Non-redo Procedures'!$N$434)</f>
-        <v>161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="R10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W10">
         <v>2015</v>
       </c>
       <c r="X10">
-        <f>SUM(Procedures!$F$1288,Procedures!$F$1289)</f>
-        <v>99</v>
+        <f>SUM(Procedures!$N$634,Procedures!$N$635)</f>
+        <v>100</v>
       </c>
       <c r="Z10">
         <f>SUM('Non-redo Procedures'!$N$516,'Non-redo Procedures'!$N$517,'Non-redo Procedures'!$N$518)</f>
-        <v>110</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.55000000000000004">
@@ -35618,237 +36130,259 @@
         <v>2016</v>
       </c>
       <c r="X11">
-        <f>SUM(Procedures!$F$1372,Procedures!$F$1373)</f>
+        <f>SUM(Procedures!$N$735,Procedures!$N$736)</f>
         <v>108</v>
       </c>
       <c r="Z11">
         <f>SUM('Non-redo Procedures'!$N$600,'Non-redo Procedures'!$N$601,'Non-redo Procedures'!$N$602)</f>
-        <v>102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="R12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S12">
-        <f>SUM(Totals!N3,Totals!N9,Totals!N15,Totals!N21,Totals!N27,Totals!N33,Totals!N39,Totals!N45,Totals!N51)</f>
-        <v>312</v>
+        <f>SUM(Totals!N3,Totals!N9,Totals!N15,Totals!N21,Totals!N27,Totals!N33,Totals!N39,Totals!N45,Totals!N51,Totals!N57)</f>
+        <v>308</v>
       </c>
       <c r="W12">
         <v>2017</v>
       </c>
       <c r="X12">
-        <f>SUM(Procedures!$F$1456,Procedures!$F$1457)</f>
-        <v>115</v>
+        <f>SUM(Procedures!$N$836,Procedures!$N$837)</f>
+        <v>116</v>
       </c>
       <c r="Z12">
         <f>SUM('Non-redo Procedures'!$N$684,'Non-redo Procedures'!$N$685,'Non-redo Procedures'!$N$686)</f>
-        <v>121</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="W13">
+        <v>2018</v>
+      </c>
+      <c r="X13">
+        <f>SUM(Procedures!$N$937,Procedures!$N$938)</f>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="R14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S14">
-        <f>ROUND(AVERAGE(Totals!O3,Totals!O9,Totals!O15,Totals!O21,Totals!O27,Totals!O33,Totals!O39,Totals!O45,Totals!O51), 1)</f>
-        <v>2.9</v>
+        <f>ROUND(AVERAGE(Totals!O3,Totals!O9,Totals!O15,Totals!O21,Totals!O27,Totals!O33,Totals!O39,Totals!O45,Totals!O51,Totals!O57), 1)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="R16" t="s">
-        <v>8</v>
+        <v>216</v>
       </c>
       <c r="S16">
-        <f>ROUND(AVERAGE(Totals!O15,Totals!O21,Totals!O27,Totals!O33,Totals!O39,Totals!O45), 1)</f>
-        <v>3.6</v>
+        <f>ROUND(AVERAGE(Totals!O15,Totals!O21,Totals!O27,Totals!O33,Totals!O39,Totals!O45,Totals!O51), 1)</f>
+        <v>3.9</v>
       </c>
     </row>
     <row r="18" spans="18:24" x14ac:dyDescent="0.55000000000000004">
       <c r="R18" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="S18">
-        <f>ROUND(AVERAGE(Totals!N4,Totals!N10,Totals!N16,Totals!N22,Totals!N28,Totals!N34,Totals!N40,Totals!N46,Totals!N52),1)</f>
-        <v>5.0999999999999996</v>
+        <f>ROUND(AVERAGE(Totals!N4,Totals!N10,Totals!N16,Totals!N22,Totals!N28,Totals!N34,Totals!N40,Totals!N46,Totals!N52,Totals!N58),1)</f>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="20" spans="18:24" x14ac:dyDescent="0.55000000000000004">
       <c r="R20" t="s">
-        <v>10</v>
+        <v>217</v>
       </c>
       <c r="S20">
-        <f>ROUND(AVERAGE(Totals!N16,Totals!N22,Totals!N28,Totals!N34,Totals!N40,Totals!N46),1)</f>
-        <v>6.4</v>
+        <f>ROUND(AVERAGE(Totals!N16,Totals!N22,Totals!N28,Totals!N34,Totals!N40,Totals!N46,Totals!N52),1)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="18:24" x14ac:dyDescent="0.55000000000000004">
       <c r="X28" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="18:24" x14ac:dyDescent="0.55000000000000004">
       <c r="W29" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="X29">
-        <f>SUM(Surgeons!$N$82,Trainers!$N$66)</f>
-        <v>99</v>
+        <f>SUM(Surgeons!$N$92,Trainers!$N$74)</f>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="18:24" x14ac:dyDescent="0.55000000000000004">
       <c r="W30" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="X30">
-        <f>SUM(Surgeons!$N$83,Trainers!$N$67)</f>
-        <v>106</v>
+        <f>SUM(Surgeons!$N$93,Trainers!$N$75)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="18:24" x14ac:dyDescent="0.55000000000000004">
       <c r="W31" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="X31">
-        <f>SUM(Surgeons!$N$84,Trainers!$N$68)</f>
-        <v>152</v>
+        <f>SUM(Surgeons!$N$94,Trainers!$N$76)</f>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="18:24" x14ac:dyDescent="0.55000000000000004">
       <c r="W32" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="X32">
-        <f>SUM(Surgeons!$N$85,Trainers!$N$69)</f>
-        <v>172</v>
+        <f>SUM(Surgeons!$N$95,Trainers!$N$77)</f>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="23:28" x14ac:dyDescent="0.55000000000000004">
       <c r="W33" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="X33">
-        <f>SUM(Surgeons!$N$86,Trainers!$N$70)</f>
-        <v>240</v>
+        <f>SUM(Surgeons!$N$96,Trainers!$N$78)</f>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="23:28" x14ac:dyDescent="0.55000000000000004">
       <c r="W41" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="23:28" x14ac:dyDescent="0.55000000000000004">
       <c r="W43" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AA43" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="23:28" x14ac:dyDescent="0.55000000000000004">
       <c r="W45" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="X45">
-        <f>SUM('Adult Procedures'!$F674:$F683)</f>
-        <v>64</v>
+        <f>SUM('Adult Procedures'!$F911:$F936)</f>
+        <v>99</v>
       </c>
       <c r="AA45" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="AB45">
         <f>SUM('Pediatric Procedures'!$F724)</f>
-        <v>127</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="23:28" x14ac:dyDescent="0.55000000000000004">
       <c r="W46" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="X46">
         <f>SUM('Adult Procedures'!$F684:$F687)</f>
-        <v>183</v>
+        <v>23</v>
       </c>
       <c r="AA46" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AB46">
         <f>SUM('Pediatric Procedures'!$F674:$F690)</f>
-        <v>82</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="23:28" x14ac:dyDescent="0.55000000000000004">
       <c r="W47" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="X47">
         <f>SUM('Adult Procedures'!$F691:$F692)</f>
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="AA47" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AB47">
         <f>SUM('Pediatric Procedures'!$F700:$F704)</f>
-        <v>117</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="23:28" x14ac:dyDescent="0.55000000000000004">
       <c r="W48" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="X48">
         <f>SUM('Adult Procedures'!$F693)</f>
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="AA48" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="AB48">
         <f>SUM('Pediatric Procedures'!$F709:$F712)</f>
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="23:28" x14ac:dyDescent="0.55000000000000004">
       <c r="W49" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="X49">
         <f>SUM('Adult Procedures'!$F700:$F748)</f>
-        <v>48</v>
+        <v>380</v>
       </c>
       <c r="AA49" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="AB49">
         <f>SUM('Pediatric Procedures'!$F721:$F723)</f>
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="23:28" x14ac:dyDescent="0.55000000000000004">
       <c r="W50" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="X50">
         <f>SUM('Adult Procedures'!$F695:$F699,'Adult Procedures'!$F749:$F754)</f>
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="AA50" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="AB50">
         <f>SUM('Pediatric Procedures'!$F725:$F735)</f>
-        <v>111</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="23:28" x14ac:dyDescent="0.55000000000000004">
       <c r="AA51" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="AB51">
         <f>SUM('Pediatric Procedures'!$F741:$F748)</f>
-        <v>93</v>
+        <v>71</v>
       </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="118"/>
+      <c r="I66" s="118"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" s="118"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114" s="118"/>
+    </row>
+    <row r="130" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I130" s="118"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Work\Audit\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="151" documentId="FC91A5086B230B3FBF10FC09D7C71FA5B6A8F71D" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{B0744990-CADA-4FDA-B94B-A5A293DB9F69}"/>
+  <xr:revisionPtr revIDLastSave="217" documentId="FC91A5086B230B3FBF10FC09D7C71FA5B6A8F71D" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{0725FD4E-8D14-4227-AB3C-EB1680D06314}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13128" windowHeight="6108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10206" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10241" uniqueCount="465">
   <si>
     <t xml:space="preserve">                               </t>
   </si>
@@ -1397,6 +1397,24 @@
   </si>
   <si>
     <t>Total/Surgeon (2018)</t>
+  </si>
+  <si>
+    <t>Total.pre</t>
+  </si>
+  <si>
+    <t>Total.post</t>
+  </si>
+  <si>
+    <t>Adults.pre</t>
+  </si>
+  <si>
+    <t>Adults.post</t>
+  </si>
+  <si>
+    <t>Pediatrics.pre</t>
+  </si>
+  <si>
+    <t>Pediatrics.post</t>
   </si>
 </sst>
 </file>
@@ -1406,7 +1424,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="151" x14ac:knownFonts="1">
+  <fonts count="153" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2215,6 +2233,16 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="50">
     <fill>
@@ -2524,7 +2552,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2975,6 +3003,12 @@
     <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3219,7 +3253,7 @@
                   <c:v>1015</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>267</c:v>
+                  <c:v>513</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3643,7 +3677,7 @@
                   <c:v>322</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>95</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4042,7 +4076,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5076,7 +5110,7 @@
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6754,28 +6788,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7187,13 +7221,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>22</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7611,7 +7645,7 @@
                   <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7780,7 +7814,7 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7947,7 +7981,7 @@
                   <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8389,22 +8423,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>19</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8800,25 +8834,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>31</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9248,7 +9282,7 @@
                   <c:v>1015</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>267</c:v>
+                  <c:v>513</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9429,10 +9463,10 @@
                   <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>46</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9611,10 +9645,10 @@
                   <c:v>6.1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.5</c:v>
+                  <c:v>4.5999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.7</c:v>
+                  <c:v>4.0999999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10090,7 +10124,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>5.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10254,10 +10288,10 @@
                   <c:v>4.5999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.5</c:v>
+                  <c:v>3.7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.7</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10708,7 +10742,7 @@
                   <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>89</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10940,7 +10974,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Adults/Peds Mortality Percentage (2017)</a:t>
+              <a:t>Adults/Peds Mortality Percentage (2018)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -11104,10 +11138,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>111</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>146</c:v>
+                  <c:v>295</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11276,10 +11310,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.7</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11749,7 +11783,7 @@
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11878,7 +11912,7 @@
                   <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>56</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12001,7 +12035,7 @@
                   <c:v>8.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12107,10 +12141,10 @@
                   <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.7</c:v>
+                  <c:v>4.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.8</c:v>
+                  <c:v>1.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12599,25 +12633,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12764,25 +12798,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>26</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12953,25 +12987,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>46</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>49</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13396,16 +13430,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13549,13 +13583,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13697,16 +13731,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14405,13 +14439,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14815,10 +14849,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>111</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>146</c:v>
+                  <c:v>295</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15106,7 +15140,7 @@
                   <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -15261,7 +15295,7 @@
                   <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>295</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -15421,7 +15455,7 @@
                   <c:v>267</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>513</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -15522,7 +15556,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{726B2B82-43C4-4ACD-8E49-88B2E056FE97}" type="CELLRANGE">
+                    <a:fld id="{3A52DB61-6746-4197-9E99-DAE4937805CD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16566,16 +16600,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16876,7 +16910,7 @@
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17395,10 +17429,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>165</c:v>
+                  <c:v>315</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>102</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17716,13 +17750,13 @@
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -17919,13 +17953,13 @@
                   <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -18144,13 +18178,13 @@
                   <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -18888,6 +18922,1463 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="758061104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Length of Hospital Stay (2018)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="31750" cap="rnd" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="17"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Length of Stay'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Adults-Peds'!$B$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>JAN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FEB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MAR</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>APR</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MAY</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>JUN</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>JUL</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>AUG</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SEP</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>OCT</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>NOV</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DEC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Length of Stay'!$D$2:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B379-45E5-9623-BD23953E1482}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Pre-op</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Adults-Peds'!$B$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>JAN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FEB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MAR</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>APR</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MAY</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>JUN</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>JUL</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>AUG</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SEP</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>OCT</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>NOV</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DEC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Length of Stay'!$E$2:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B379-45E5-9623-BD23953E1482}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Post-op</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Adults-Peds'!$B$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>JAN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FEB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MAR</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>APR</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MAY</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>JUN</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>JUL</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>AUG</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SEP</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>OCT</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>NOV</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DEC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Length of Stay'!$F$2:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B379-45E5-9623-BD23953E1482}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="862875064"/>
+        <c:axId val="862879000"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="862875064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="862879000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="862879000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="862875064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Length</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of Hospital Stay (Adults vs Peds)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Length of Stay'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Adults</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Adults-Peds'!$B$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>JAN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FEB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MAR</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>APR</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MAY</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>JUN</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>JUL</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>AUG</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SEP</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>OCT</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>NOV</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DEC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Length of Stay'!$G$2:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0F50-4AB8-BBA9-6A3BE42B376C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Length of Stay'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pediatrics</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Adults-Peds'!$B$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>JAN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FEB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MAR</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>APR</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MAY</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>JUN</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>JUL</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>AUG</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SEP</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>OCT</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>NOV</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DEC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Length of Stay'!$J$2:$J$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0F50-4AB8-BBA9-6A3BE42B376C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="763600912"/>
+        <c:axId val="763598288"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="763600912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="763598288"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="763598288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="763600912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -19393,13 +20884,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>14</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19920,13 +21411,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>23</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20323,10 +21814,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>163</c:v>
+                  <c:v>323</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20634,7 +22125,7 @@
                   <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20803,7 +22294,7 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20972,7 +22463,7 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21178,7 +22669,7 @@
                   <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21981,19 +23472,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>95</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>57</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>71</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22307,7 +23798,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4</c:v>
@@ -23309,6 +24800,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors28.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors29.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -33943,6 +35514,1010 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style28.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="342">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style29.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="342">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -38751,6 +41326,82 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>100060</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>157018</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="35" name="Chart 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74AED6F2-12E8-4E42-B9A6-AE1CCB336574}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId30"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>100060</xdr:colOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>157018</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="36" name="Chart 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{019DF6B7-F074-4564-A04A-A843510D3980}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -39077,7 +41728,7 @@
       </c>
       <c r="S2">
         <f>SUM(Totals!N2,Totals!N8,Totals!N14,Totals!N20,Totals!N26,Totals!N32,Totals!N38,Totals!N44,Totals!N50,Totals!N56)</f>
-        <v>5502</v>
+        <v>5748</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.55000000000000004">
@@ -39094,7 +41745,7 @@
       </c>
       <c r="S4" s="1">
         <f>ROUND(AVERAGE(Totals!O2,Totals!O8,Totals!O14,Totals!O20,Totals!O26,Totals!O32,Totals!O38,Totals!O44,Totals!O50,Totals!O56), 1)</f>
-        <v>55.5</v>
+        <v>55.2</v>
       </c>
       <c r="W4">
         <v>2009</v>
@@ -39192,7 +41843,7 @@
         <v>3</v>
       </c>
       <c r="S10">
-        <v>267</v>
+        <v>513</v>
       </c>
       <c r="W10">
         <v>2015</v>
@@ -39225,7 +41876,7 @@
       </c>
       <c r="S12">
         <f>SUM(Totals!N3,Totals!N9,Totals!N15,Totals!N21,Totals!N27,Totals!N33,Totals!N39,Totals!N45,Totals!N51,Totals!N57)</f>
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="W12">
         <v>2017</v>
@@ -39245,11 +41896,11 @@
       </c>
       <c r="X13">
         <f>SUM(Procedures!$N$937,Procedures!$N$938)</f>
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="Z13">
         <f>SUM('Non-redo Procedures'!$F$921,'Non-redo Procedures'!$F$922,'Non-redo Procedures'!$F$923)</f>
-        <v>24</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.55000000000000004">
@@ -39258,7 +41909,7 @@
       </c>
       <c r="S14">
         <f>ROUND(AVERAGE(Totals!O3,Totals!O9,Totals!O15,Totals!O21,Totals!O27,Totals!O33,Totals!O39,Totals!O45,Totals!O51,Totals!O57), 1)</f>
-        <v>3</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.55000000000000004">
@@ -39276,7 +41927,7 @@
       </c>
       <c r="S18">
         <f>ROUND(AVERAGE(Totals!N4,Totals!N10,Totals!N16,Totals!N22,Totals!N28,Totals!N34,Totals!N40,Totals!N46,Totals!N52,Totals!N58),1)</f>
-        <v>4.5999999999999996</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="18:24" x14ac:dyDescent="0.55000000000000004">
@@ -39299,7 +41950,7 @@
       </c>
       <c r="X29">
         <f>SUM(Surgeons!$N$92,Trainers!$N$74)</f>
-        <v>20</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="18:24" x14ac:dyDescent="0.55000000000000004">
@@ -39308,7 +41959,7 @@
       </c>
       <c r="X30">
         <f>SUM(Surgeons!$N$93,Trainers!$N$75)</f>
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="18:24" x14ac:dyDescent="0.55000000000000004">
@@ -39317,7 +41968,7 @@
       </c>
       <c r="X31">
         <f>SUM(Surgeons!$N$94,Trainers!$N$76)</f>
-        <v>44</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="18:24" x14ac:dyDescent="0.55000000000000004">
@@ -39326,7 +41977,7 @@
       </c>
       <c r="X32">
         <f>SUM(Surgeons!$N$95,Trainers!$N$77)</f>
-        <v>55</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="23:28" x14ac:dyDescent="0.55000000000000004">
@@ -39335,7 +41986,7 @@
       </c>
       <c r="X33">
         <f>SUM(Surgeons!$N$96,Trainers!$N$78)</f>
-        <v>44</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="23:28" x14ac:dyDescent="0.55000000000000004">
@@ -39357,14 +42008,14 @@
       </c>
       <c r="X45">
         <f>SUM('Adult Procedures'!$F911:$F920)</f>
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="AA45" t="s">
         <v>195</v>
       </c>
       <c r="AB45">
         <f>SUM('Pediatric Procedures'!$F961)</f>
-        <v>31</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="23:28" x14ac:dyDescent="0.55000000000000004">
@@ -39373,14 +42024,14 @@
       </c>
       <c r="X46">
         <f>SUM('Adult Procedures'!$F921:$F923)</f>
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="AA46" t="s">
         <v>189</v>
       </c>
       <c r="AB46">
         <f>SUM('Pediatric Procedures'!$F911:$F926)</f>
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="23:28" x14ac:dyDescent="0.55000000000000004">
@@ -39389,14 +42040,14 @@
       </c>
       <c r="X47">
         <f>SUM('Adult Procedures'!$F928:$F929)</f>
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="AA47" t="s">
         <v>190</v>
       </c>
       <c r="AB47">
         <f>SUM('Pediatric Procedures'!$F937:$F941)</f>
-        <v>28</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="23:28" x14ac:dyDescent="0.55000000000000004">
@@ -39405,14 +42056,14 @@
       </c>
       <c r="X48">
         <f>SUM('Adult Procedures'!$F930)</f>
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="AA48" t="s">
         <v>191</v>
       </c>
       <c r="AB48">
         <f>SUM('Pediatric Procedures'!$F946:$F948)</f>
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="23:28" x14ac:dyDescent="0.55000000000000004">
@@ -39421,14 +42072,14 @@
       </c>
       <c r="X49">
         <f>SUM('Adult Procedures'!$F937:$F985)</f>
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AA49" t="s">
         <v>192</v>
       </c>
       <c r="AB49">
         <f>SUM('Pediatric Procedures'!$F958:$F960)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="23:28" x14ac:dyDescent="0.55000000000000004">
@@ -39437,14 +42088,14 @@
       </c>
       <c r="X50">
         <f>SUM('Adult Procedures'!F924:F927,'Adult Procedures'!F932:F936)</f>
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AA50" t="s">
         <v>193</v>
       </c>
       <c r="AB50">
         <f>SUM('Pediatric Procedures'!$F962:$F972)</f>
-        <v>37</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="23:28" x14ac:dyDescent="0.55000000000000004">
@@ -39453,7 +42104,7 @@
       </c>
       <c r="AB51">
         <f>SUM('Pediatric Procedures'!$F978:$F985)</f>
-        <v>32</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
